--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_7_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_7_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2088345.523615621</v>
+        <v>2052965.088893919</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1092447.375336353</v>
+        <v>1092447.375336355</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7361966.055782022</v>
+        <v>7361966.055782027</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7785737.381885273</v>
+        <v>7785737.381885272</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>54.19701966463789</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>7.293863480540836</v>
-      </c>
       <c r="G2" t="n">
-        <v>14.85476540383092</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>54.19701966463789</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>47.07745778605062</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>24.92882890167886</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -743,23 +743,23 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>54.19701966463789</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>54.19701966463789</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>54.19701966463789</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>47.73673492061304</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>47.73673492061304</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>54.19701966463789</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>16.32206764769463</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>16.32206764769464</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -907,46 +907,46 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>32.88196951678211</v>
+        <v>47.07745778605062</v>
       </c>
       <c r="G5" t="n">
-        <v>14.85476540383092</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.6592771345624158</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
         <v>54.19701966463789</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>54.19701966463789</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,13 +977,13 @@
         <v>54.19701966463789</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>47.73673492061303</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>54.19701966463789</v>
       </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>54.19701966463789</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>47.73673492061304</v>
       </c>
     </row>
     <row r="7">
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>54.19701966463789</v>
       </c>
       <c r="G7" t="n">
-        <v>16.32206764769463</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.547657929861283</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="S7" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>103.4077312437953</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>118.1505544713417</v>
+        <v>118.1505544713402</v>
       </c>
       <c r="G8" t="n">
-        <v>118.1505544713417</v>
+        <v>118.1505544713402</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>118.1505544713417</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>118.1505544713402</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>103.407731243794</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>118.1505544713402</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>118.1505544713402</v>
       </c>
       <c r="D9" t="n">
-        <v>118.1505544713417</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>118.1505544713417</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>118.1505544713417</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>104.0670083783578</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>17.56346491288472</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>118.1505544713402</v>
       </c>
     </row>
     <row r="10">
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>84.37801704792683</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>118.1505544713417</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>60.76257217026666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>383.716409991395</v>
+        <v>383.7164099913951</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>366.9850956789427</v>
       </c>
       <c r="D11" t="n">
         <v>356.6047327545984</v>
@@ -1381,13 +1381,13 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>55.97983816907735</v>
       </c>
       <c r="S11" t="n">
         <v>174.714014505568</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>153.7152528958003</v>
+        <v>272.0077881947076</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.6870717512359</v>
       </c>
     </row>
     <row r="12">
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.28281404613733</v>
+        <v>49.28281404613732</v>
       </c>
       <c r="S12" t="n">
         <v>155.3758183558542</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.2763914303118</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>28.41377105177699</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>145.8195582697328</v>
       </c>
       <c r="S13" t="n">
-        <v>211.671046896745</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>281.5173485569121</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>68.30695182041136</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>217.1848404605883</v>
+        <v>383.7164099913951</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>407.2938634805408</v>
+        <v>407.2938634805409</v>
       </c>
       <c r="G14" t="n">
-        <v>413.4877467656314</v>
+        <v>413.4877467656315</v>
       </c>
       <c r="H14" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>55.97983816907738</v>
       </c>
       <c r="S14" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>216.980993107702</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>11.25634051120795</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.6870717512359</v>
       </c>
     </row>
     <row r="15">
@@ -1697,7 +1697,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F15" t="n">
-        <v>143.5062320835495</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
         <v>135.2917907515943</v>
@@ -1706,7 +1706,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I15" t="n">
-        <v>61.32090000246037</v>
+        <v>61.32090000246036</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>155.3758183558542</v>
       </c>
       <c r="T15" t="n">
-        <v>195.4343982340639</v>
+        <v>195.434398234064</v>
       </c>
       <c r="U15" t="n">
         <v>224.6090573663165</v>
@@ -1748,7 +1748,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
-        <v>249.98934675</v>
+        <v>249.9893467500005</v>
       </c>
       <c r="X15" t="n">
         <v>204.4616296084783</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>135.3180256216325</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.48578169199548</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W16" t="n">
-        <v>120.8946194205722</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.7486738677682</v>
+        <v>128.4665504535168</v>
       </c>
     </row>
     <row r="17">
@@ -1846,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>366.9850956789427</v>
       </c>
       <c r="D17" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>407.2938634805408</v>
+        <v>407.2938634805409</v>
       </c>
       <c r="G17" t="n">
-        <v>413.4877467656314</v>
+        <v>413.4877467656315</v>
       </c>
       <c r="H17" t="n">
-        <v>239.3088456984508</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>55.97983816907738</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.714014505568</v>
       </c>
       <c r="T17" t="n">
-        <v>216.980993107702</v>
+        <v>216.9809931077021</v>
       </c>
       <c r="U17" t="n">
         <v>251.3684020854885</v>
       </c>
       <c r="V17" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225194</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>86.90052576156732</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1937,13 +1937,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>135.2917907515943</v>
+        <v>135.2917907515944</v>
       </c>
       <c r="H18" t="n">
         <v>103.3985434322537</v>
       </c>
       <c r="I18" t="n">
-        <v>61.32090000246037</v>
+        <v>61.32090000246042</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.28281404613733</v>
+        <v>49.28281404613737</v>
       </c>
       <c r="S18" t="n">
-        <v>155.3758183558542</v>
+        <v>155.3758183558543</v>
       </c>
       <c r="T18" t="n">
-        <v>195.4343982340639</v>
+        <v>195.434398234064</v>
       </c>
       <c r="U18" t="n">
-        <v>224.6090573663165</v>
+        <v>224.6090573663164</v>
       </c>
       <c r="V18" t="n">
         <v>231.9087310396551</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C19" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>58.88636207984746</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F19" t="n">
-        <v>2.321548059804229</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>135.3180256216325</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>211.671046896745</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2086,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
         <v>413.4877467656314</v>
       </c>
       <c r="H20" t="n">
-        <v>324.1439237596927</v>
+        <v>83.02402230934079</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>174.714014505568</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U20" t="n">
         <v>251.3684020854885</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
         <v>350.5301170005546</v>
@@ -2149,7 +2149,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
-        <v>355.0834439058119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2165,7 +2165,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
-        <v>146.1124235746456</v>
+        <v>146.1124235746459</v>
       </c>
       <c r="E21" t="n">
         <v>156.0334337071738</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.28281404613733</v>
+        <v>49.28281404613688</v>
       </c>
       <c r="S21" t="n">
         <v>155.3758183558542</v>
@@ -2216,7 +2216,7 @@
         <v>195.4343982340639</v>
       </c>
       <c r="U21" t="n">
-        <v>224.6090573663165</v>
+        <v>224.6090573663164</v>
       </c>
       <c r="V21" t="n">
         <v>231.9087310396551</v>
@@ -2225,7 +2225,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
-        <v>204.4616296084784</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
         <v>203.671151418586</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>42.78347424545684</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.48578169199548</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>145.8195582697328</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U22" t="n">
-        <v>286.0188232547115</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>115.8060347042022</v>
       </c>
     </row>
     <row r="23">
@@ -2323,19 +2323,19 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>271.3312291055477</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3990238424612</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H23" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>55.97983816907738</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U25" t="n">
         <v>286.0188232547115</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>155.6904612099074</v>
       </c>
       <c r="X25" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>155.2625415881468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,13 +2557,13 @@
         <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F26" t="n">
         <v>407.2938634805408</v>
@@ -2572,10 +2572,10 @@
         <v>413.4877467656314</v>
       </c>
       <c r="H26" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>55.97983816907738</v>
       </c>
       <c r="S26" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>119.942970557112</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>57.38395942181034</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="27">
@@ -2690,7 +2690,7 @@
         <v>195.4343982340639</v>
       </c>
       <c r="U27" t="n">
-        <v>224.6090573663166</v>
+        <v>224.6090573663165</v>
       </c>
       <c r="V27" t="n">
         <v>231.9087310396551</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>28.58099748997349</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2757,25 +2757,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>28.413771051777</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>145.8195582697328</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>211.671046896745</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V28" t="n">
-        <v>252.9363510669392</v>
+        <v>95.31032463304051</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>383.1180357552875</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>55.97983816907738</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.714014505568</v>
@@ -2851,16 +2851,16 @@
         <v>251.3684020854885</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W29" t="n">
-        <v>33.49419696944471</v>
+        <v>90.74487135620552</v>
       </c>
       <c r="X29" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>125.2144706936583</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.2763914303091</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1821887834319</v>
       </c>
       <c r="I31" t="n">
-        <v>135.3180256216325</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2994,13 +2994,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>28.413771051777</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>145.8195582697328</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>211.671046896745</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>146.1993229352801</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="32">
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
-        <v>124.4509902376821</v>
+        <v>278.9264643448527</v>
       </c>
       <c r="D32" t="n">
         <v>356.6047327545984</v>
@@ -3046,7 +3046,7 @@
         <v>413.4877467656314</v>
       </c>
       <c r="H32" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>55.97983816907738</v>
       </c>
       <c r="S32" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="33">
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.2763914303091</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1821887834319</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>135.3180256216325</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3231,22 +3231,22 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>28.413771051777</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>211.671046896745</v>
+        <v>41.30856600859169</v>
       </c>
       <c r="T34" t="n">
-        <v>27.42593158650714</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C35" t="n">
-        <v>326.9277048920554</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
         <v>356.6047327545984</v>
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>55.97983816907738</v>
       </c>
       <c r="S35" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>216.980993107702</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>65.82197468937693</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.6870717512358</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.5117820423933</v>
+        <v>50.76933747752962</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1821887834319</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3468,13 +3468,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>28.413771051777</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>145.8195582697328</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>211.671046896745</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>383.1180357552875</v>
@@ -3517,13 +3517,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H38" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>55.97983816907738</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U38" t="n">
         <v>251.3684020854885</v>
@@ -3565,13 +3565,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W38" t="n">
-        <v>6.522406980214109</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>14.7877475161448</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3650,7 +3650,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
-        <v>203.6711514185866</v>
+        <v>203.6711514185862</v>
       </c>
     </row>
     <row r="40">
@@ -3669,22 +3669,22 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.2763914303091</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1821887834319</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.48578169199548</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>211.671046896745</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>95.95371908202554</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>176.6265916302242</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>383.1180357552875</v>
+        <v>178.217728131931</v>
       </c>
       <c r="F41" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I41" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>55.97983816907738</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.714014505568</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>136.1294328159425</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="42">
@@ -3833,13 +3833,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>135.2917907515945</v>
+        <v>135.2917907515943</v>
       </c>
       <c r="H42" t="n">
         <v>103.3985434322537</v>
       </c>
       <c r="I42" t="n">
-        <v>61.32090000246037</v>
+        <v>61.32090000246058</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>118.2507042508779</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.2763914303091</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1821887834319</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U43" t="n">
-        <v>286.0188232547115</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>214.0663485892537</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,25 +3979,25 @@
         <v>383.716409991395</v>
       </c>
       <c r="C44" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>53.5233191133422</v>
       </c>
       <c r="E44" t="n">
-        <v>121.5765643603315</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
         <v>413.4877467656314</v>
       </c>
       <c r="H44" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>174.714014505568</v>
       </c>
       <c r="T44" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
         <v>386.6870717512358</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>62.70168463667157</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>128.4665504535168</v>
+        <v>211.671046896745</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0188232547115</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27.37405048118535</v>
+        <v>114.4906266881591</v>
       </c>
       <c r="C2" t="n">
-        <v>27.37405048118535</v>
+        <v>114.4906266881591</v>
       </c>
       <c r="D2" t="n">
-        <v>27.37405048118535</v>
+        <v>114.4906266881591</v>
       </c>
       <c r="E2" t="n">
-        <v>27.37405048118535</v>
+        <v>114.4906266881591</v>
       </c>
       <c r="F2" t="n">
-        <v>20.00651161195218</v>
+        <v>59.74616238044408</v>
       </c>
       <c r="G2" t="n">
         <v>5.001698072729027</v>
@@ -4339,13 +4339,13 @@
         <v>111.6458605091541</v>
       </c>
       <c r="M2" t="n">
+        <v>111.6458605091541</v>
+      </c>
+      <c r="N2" t="n">
         <v>159.1140819584346</v>
       </c>
-      <c r="N2" t="n">
-        <v>212.7691314264261</v>
-      </c>
       <c r="O2" t="n">
-        <v>212.7691314264261</v>
+        <v>159.1140819584346</v>
       </c>
       <c r="P2" t="n">
         <v>212.7691314264261</v>
@@ -4357,25 +4357,25 @@
         <v>162.0436143508365</v>
       </c>
       <c r="S2" t="n">
-        <v>162.0436143508365</v>
+        <v>114.4906266881591</v>
       </c>
       <c r="T2" t="n">
-        <v>162.0436143508365</v>
+        <v>114.4906266881591</v>
       </c>
       <c r="U2" t="n">
-        <v>162.0436143508365</v>
+        <v>114.4906266881591</v>
       </c>
       <c r="V2" t="n">
-        <v>162.0436143508365</v>
+        <v>114.4906266881591</v>
       </c>
       <c r="W2" t="n">
-        <v>136.8629790966154</v>
+        <v>114.4906266881591</v>
       </c>
       <c r="X2" t="n">
-        <v>136.8629790966154</v>
+        <v>114.4906266881591</v>
       </c>
       <c r="Y2" t="n">
-        <v>82.1185147889004</v>
+        <v>114.4906266881591</v>
       </c>
     </row>
     <row r="3">
@@ -4391,10 +4391,10 @@
         <v>168.5691544963162</v>
       </c>
       <c r="D3" t="n">
-        <v>113.8246901886011</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="E3" t="n">
-        <v>113.8246901886011</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="F3" t="n">
         <v>113.8246901886011</v>
@@ -4403,7 +4403,7 @@
         <v>59.08022588088608</v>
       </c>
       <c r="H3" t="n">
-        <v>4.335761573171031</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="I3" t="n">
         <v>4.335761573171031</v>
@@ -4412,19 +4412,19 @@
         <v>11.72907241965593</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82293025457702</v>
+        <v>65.38412188764744</v>
       </c>
       <c r="L3" t="n">
+        <v>65.38412188764744</v>
+      </c>
+      <c r="M3" t="n">
+        <v>65.38412188764744</v>
+      </c>
+      <c r="N3" t="n">
         <v>109.4779797225685</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>163.1330291905601</v>
-      </c>
-      <c r="N3" t="n">
-        <v>216.7880786585516</v>
-      </c>
-      <c r="O3" t="n">
-        <v>216.7880786585516</v>
       </c>
       <c r="P3" t="n">
         <v>216.7880786585516</v>
@@ -4433,13 +4433,13 @@
         <v>216.7880786585516</v>
       </c>
       <c r="R3" t="n">
-        <v>216.7880786585516</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="S3" t="n">
-        <v>216.7880786585516</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="T3" t="n">
-        <v>216.7880786585516</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="U3" t="n">
         <v>168.5691544963162</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36.06774871753305</v>
+        <v>20.8226985910444</v>
       </c>
       <c r="C4" t="n">
-        <v>36.06774871753305</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="D4" t="n">
-        <v>36.06774871753305</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="E4" t="n">
-        <v>36.06774871753305</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="F4" t="n">
-        <v>36.06774871753305</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="G4" t="n">
-        <v>36.06774871753305</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="H4" t="n">
-        <v>36.06774871753305</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="I4" t="n">
-        <v>36.06774871753305</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="J4" t="n">
-        <v>36.06774871753305</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="K4" t="n">
-        <v>36.06774871753305</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="L4" t="n">
-        <v>73.15426764425224</v>
+        <v>41.42228049989023</v>
       </c>
       <c r="M4" t="n">
-        <v>122.8497015611917</v>
+        <v>91.1177144168297</v>
       </c>
       <c r="N4" t="n">
-        <v>176.5047510291832</v>
+        <v>144.7727638848212</v>
       </c>
       <c r="O4" t="n">
-        <v>210.7272769788546</v>
+        <v>178.9952898344926</v>
       </c>
       <c r="P4" t="n">
-        <v>216.7880786585516</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="Q4" t="n">
-        <v>216.7880786585516</v>
+        <v>185.0560915141895</v>
       </c>
       <c r="R4" t="n">
-        <v>216.7880786585516</v>
+        <v>130.3116272064745</v>
       </c>
       <c r="S4" t="n">
-        <v>216.7880786585516</v>
+        <v>130.3116272064745</v>
       </c>
       <c r="T4" t="n">
-        <v>200.3011416406782</v>
+        <v>130.3116272064745</v>
       </c>
       <c r="U4" t="n">
-        <v>145.5566773329631</v>
+        <v>130.3116272064745</v>
       </c>
       <c r="V4" t="n">
-        <v>145.5566773329631</v>
+        <v>130.3116272064745</v>
       </c>
       <c r="W4" t="n">
-        <v>145.5566773329631</v>
+        <v>130.3116272064745</v>
       </c>
       <c r="X4" t="n">
-        <v>90.8122130252481</v>
+        <v>75.56716289875945</v>
       </c>
       <c r="Y4" t="n">
-        <v>90.8122130252481</v>
+        <v>75.56716289875945</v>
       </c>
     </row>
     <row r="5">
@@ -4555,16 +4555,16 @@
         <v>107.2991500431215</v>
       </c>
       <c r="F5" t="n">
-        <v>74.08503942010924</v>
+        <v>59.74616238044408</v>
       </c>
       <c r="G5" t="n">
-        <v>59.08022588088608</v>
+        <v>5.001698072729027</v>
       </c>
       <c r="H5" t="n">
-        <v>4.335761573171031</v>
+        <v>5.001698072729027</v>
       </c>
       <c r="I5" t="n">
-        <v>4.335761573171031</v>
+        <v>5.001698072729027</v>
       </c>
       <c r="J5" t="n">
         <v>4.335761573171031</v>
@@ -4573,16 +4573,16 @@
         <v>4.335761573171031</v>
       </c>
       <c r="L5" t="n">
-        <v>57.99081104116254</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="M5" t="n">
-        <v>111.6458605091541</v>
+        <v>51.80398302245153</v>
       </c>
       <c r="N5" t="n">
-        <v>165.3009099771456</v>
+        <v>105.459032490443</v>
       </c>
       <c r="O5" t="n">
-        <v>212.7691314264261</v>
+        <v>159.1140819584346</v>
       </c>
       <c r="P5" t="n">
         <v>212.7691314264261</v>
@@ -4594,19 +4594,19 @@
         <v>216.7880786585516</v>
       </c>
       <c r="S5" t="n">
-        <v>216.7880786585516</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="T5" t="n">
-        <v>162.0436143508365</v>
+        <v>107.2991500431215</v>
       </c>
       <c r="U5" t="n">
-        <v>162.0436143508365</v>
+        <v>107.2991500431215</v>
       </c>
       <c r="V5" t="n">
-        <v>162.0436143508365</v>
+        <v>107.2991500431215</v>
       </c>
       <c r="W5" t="n">
-        <v>162.0436143508365</v>
+        <v>107.2991500431215</v>
       </c>
       <c r="X5" t="n">
         <v>107.2991500431215</v>
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52.55468573540642</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="C6" t="n">
-        <v>52.55468573540642</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="D6" t="n">
-        <v>52.55468573540642</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="E6" t="n">
         <v>4.335761573171031</v>
@@ -4646,52 +4646,52 @@
         <v>4.335761573171031</v>
       </c>
       <c r="J6" t="n">
-        <v>4.335761573171031</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="K6" t="n">
-        <v>4.335761573171031</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="L6" t="n">
-        <v>57.99081104116254</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="M6" t="n">
-        <v>111.6458605091541</v>
+        <v>11.72907241965593</v>
       </c>
       <c r="N6" t="n">
-        <v>111.6458605091541</v>
+        <v>65.38412188764744</v>
       </c>
       <c r="O6" t="n">
-        <v>111.6458605091541</v>
+        <v>119.039171355639</v>
       </c>
       <c r="P6" t="n">
-        <v>165.3009099771456</v>
+        <v>172.6942208236305</v>
       </c>
       <c r="Q6" t="n">
         <v>216.7880786585516</v>
       </c>
       <c r="R6" t="n">
+        <v>216.7880786585516</v>
+      </c>
+      <c r="S6" t="n">
+        <v>216.7880786585516</v>
+      </c>
+      <c r="T6" t="n">
+        <v>216.7880786585516</v>
+      </c>
+      <c r="U6" t="n">
+        <v>216.7880786585516</v>
+      </c>
+      <c r="V6" t="n">
+        <v>216.7880786585516</v>
+      </c>
+      <c r="W6" t="n">
+        <v>216.7880786585516</v>
+      </c>
+      <c r="X6" t="n">
         <v>162.0436143508365</v>
       </c>
-      <c r="S6" t="n">
-        <v>162.0436143508365</v>
-      </c>
-      <c r="T6" t="n">
-        <v>162.0436143508365</v>
-      </c>
-      <c r="U6" t="n">
-        <v>162.0436143508365</v>
-      </c>
-      <c r="V6" t="n">
-        <v>107.2991500431215</v>
-      </c>
-      <c r="W6" t="n">
-        <v>107.2991500431215</v>
-      </c>
-      <c r="X6" t="n">
-        <v>107.2991500431215</v>
-      </c>
       <c r="Y6" t="n">
-        <v>107.2991500431215</v>
+        <v>113.8246901886011</v>
       </c>
     </row>
     <row r="7">
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>75.56716289875945</v>
+        <v>130.3116272064745</v>
       </c>
       <c r="C7" t="n">
-        <v>75.56716289875945</v>
+        <v>130.3116272064745</v>
       </c>
       <c r="D7" t="n">
         <v>75.56716289875945</v>
@@ -4716,16 +4716,16 @@
         <v>20.8226985910444</v>
       </c>
       <c r="G7" t="n">
-        <v>4.335761573171031</v>
+        <v>20.8226985910444</v>
       </c>
       <c r="H7" t="n">
-        <v>4.335761573171031</v>
+        <v>20.8226985910444</v>
       </c>
       <c r="I7" t="n">
-        <v>4.335761573171031</v>
+        <v>20.8226985910444</v>
       </c>
       <c r="J7" t="n">
-        <v>4.335761573171031</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="K7" t="n">
         <v>4.335761573171031</v>
@@ -4749,7 +4749,7 @@
         <v>185.0560915141895</v>
       </c>
       <c r="R7" t="n">
-        <v>185.0560915141895</v>
+        <v>130.3116272064745</v>
       </c>
       <c r="S7" t="n">
         <v>130.3116272064745</v>
@@ -4767,10 +4767,10 @@
         <v>130.3116272064745</v>
       </c>
       <c r="X7" t="n">
-        <v>75.56716289875945</v>
+        <v>130.3116272064745</v>
       </c>
       <c r="Y7" t="n">
-        <v>75.56716289875945</v>
+        <v>130.3116272064745</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>353.2582234698701</v>
+        <v>248.8059696882556</v>
       </c>
       <c r="C8" t="n">
-        <v>353.2582234698701</v>
+        <v>248.8059696882556</v>
       </c>
       <c r="D8" t="n">
-        <v>248.8059696882587</v>
+        <v>248.8059696882556</v>
       </c>
       <c r="E8" t="n">
-        <v>248.8059696882587</v>
+        <v>248.8059696882556</v>
       </c>
       <c r="F8" t="n">
-        <v>129.461975272762</v>
+        <v>129.4619752727604</v>
       </c>
       <c r="G8" t="n">
-        <v>10.11798085726533</v>
+        <v>10.11798085726521</v>
       </c>
       <c r="H8" t="n">
-        <v>10.11798085726533</v>
+        <v>10.11798085726521</v>
       </c>
       <c r="I8" t="n">
-        <v>10.11798085726533</v>
+        <v>10.11798085726521</v>
       </c>
       <c r="J8" t="n">
-        <v>9.452044357707335</v>
+        <v>9.452044357707219</v>
       </c>
       <c r="K8" t="n">
-        <v>9.549823092771902</v>
+        <v>126.421093284334</v>
       </c>
       <c r="L8" t="n">
-        <v>126.5188720194002</v>
+        <v>243.3901422109609</v>
       </c>
       <c r="M8" t="n">
-        <v>243.4879209460285</v>
+        <v>360.3591911375877</v>
       </c>
       <c r="N8" t="n">
-        <v>243.4879209460285</v>
+        <v>472.6022178853609</v>
       </c>
       <c r="O8" t="n">
-        <v>360.4569698726567</v>
+        <v>472.6022178853609</v>
       </c>
       <c r="P8" t="n">
-        <v>468.5832706532413</v>
+        <v>472.6022178853609</v>
       </c>
       <c r="Q8" t="n">
-        <v>472.6022178853668</v>
+        <v>472.6022178853609</v>
       </c>
       <c r="R8" t="n">
-        <v>472.6022178853668</v>
+        <v>472.6022178853609</v>
       </c>
       <c r="S8" t="n">
-        <v>472.6022178853668</v>
+        <v>472.6022178853609</v>
       </c>
       <c r="T8" t="n">
-        <v>353.2582234698701</v>
+        <v>472.6022178853609</v>
       </c>
       <c r="U8" t="n">
-        <v>353.2582234698701</v>
+        <v>472.6022178853609</v>
       </c>
       <c r="V8" t="n">
-        <v>353.2582234698701</v>
+        <v>353.2582234698657</v>
       </c>
       <c r="W8" t="n">
-        <v>353.2582234698701</v>
+        <v>248.8059696882556</v>
       </c>
       <c r="X8" t="n">
-        <v>353.2582234698701</v>
+        <v>248.8059696882556</v>
       </c>
       <c r="Y8" t="n">
-        <v>353.2582234698701</v>
+        <v>248.8059696882556</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>472.6022178853668</v>
+        <v>216.173355404992</v>
       </c>
       <c r="C9" t="n">
-        <v>472.6022178853668</v>
+        <v>96.82936098949679</v>
       </c>
       <c r="D9" t="n">
-        <v>353.2582234698701</v>
+        <v>96.82936098949679</v>
       </c>
       <c r="E9" t="n">
-        <v>233.9142290543735</v>
+        <v>96.82936098949679</v>
       </c>
       <c r="F9" t="n">
-        <v>114.5702346388768</v>
+        <v>96.82936098949679</v>
       </c>
       <c r="G9" t="n">
-        <v>114.5702346388768</v>
+        <v>96.82936098949679</v>
       </c>
       <c r="H9" t="n">
-        <v>9.452044357707335</v>
+        <v>96.82936098949679</v>
       </c>
       <c r="I9" t="n">
-        <v>9.452044357707335</v>
+        <v>9.452044357707219</v>
       </c>
       <c r="J9" t="n">
-        <v>9.452044357707335</v>
+        <v>16.84535520419212</v>
       </c>
       <c r="K9" t="n">
-        <v>9.452044357707335</v>
+        <v>133.814404130819</v>
       </c>
       <c r="L9" t="n">
-        <v>9.452044357707335</v>
+        <v>250.7834530574458</v>
       </c>
       <c r="M9" t="n">
-        <v>126.4210932843356</v>
+        <v>274.4550009424361</v>
       </c>
       <c r="N9" t="n">
-        <v>243.3901422109639</v>
+        <v>274.4550009424361</v>
       </c>
       <c r="O9" t="n">
-        <v>360.3591911375922</v>
+        <v>391.424049869063</v>
       </c>
       <c r="P9" t="n">
-        <v>472.6022178853668</v>
+        <v>391.424049869063</v>
       </c>
       <c r="Q9" t="n">
-        <v>472.6022178853668</v>
+        <v>472.6022178853609</v>
       </c>
       <c r="R9" t="n">
-        <v>472.6022178853668</v>
+        <v>472.6022178853609</v>
       </c>
       <c r="S9" t="n">
-        <v>472.6022178853668</v>
+        <v>472.6022178853609</v>
       </c>
       <c r="T9" t="n">
-        <v>472.6022178853668</v>
+        <v>472.6022178853609</v>
       </c>
       <c r="U9" t="n">
-        <v>472.6022178853668</v>
+        <v>472.6022178853609</v>
       </c>
       <c r="V9" t="n">
-        <v>472.6022178853668</v>
+        <v>472.6022178853609</v>
       </c>
       <c r="W9" t="n">
-        <v>472.6022178853668</v>
+        <v>472.6022178853609</v>
       </c>
       <c r="X9" t="n">
-        <v>472.6022178853668</v>
+        <v>454.8613442359824</v>
       </c>
       <c r="Y9" t="n">
-        <v>472.6022178853668</v>
+        <v>335.5173498204872</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.452044357707335</v>
+        <v>109.606010787768</v>
       </c>
       <c r="C10" t="n">
-        <v>9.452044357707335</v>
+        <v>109.606010787768</v>
       </c>
       <c r="D10" t="n">
-        <v>9.452044357707335</v>
+        <v>109.606010787768</v>
       </c>
       <c r="E10" t="n">
-        <v>9.452044357707335</v>
+        <v>109.606010787768</v>
       </c>
       <c r="F10" t="n">
-        <v>9.452044357707335</v>
+        <v>109.606010787768</v>
       </c>
       <c r="G10" t="n">
-        <v>9.452044357707335</v>
+        <v>109.606010787768</v>
       </c>
       <c r="H10" t="n">
-        <v>9.452044357707335</v>
+        <v>109.606010787768</v>
       </c>
       <c r="I10" t="n">
-        <v>9.452044357707335</v>
+        <v>109.606010787768</v>
       </c>
       <c r="J10" t="n">
-        <v>9.452044357707335</v>
+        <v>24.37569053733687</v>
       </c>
       <c r="K10" t="n">
-        <v>9.452044357707335</v>
+        <v>9.452044357707219</v>
       </c>
       <c r="L10" t="n">
-        <v>46.53856328442653</v>
+        <v>46.53856328442642</v>
       </c>
       <c r="M10" t="n">
-        <v>96.23399720136601</v>
+        <v>96.2339972013659</v>
       </c>
       <c r="N10" t="n">
-        <v>149.8890466693575</v>
+        <v>149.8890466693574</v>
       </c>
       <c r="O10" t="n">
-        <v>184.1115726190289</v>
+        <v>184.1115726190288</v>
       </c>
       <c r="P10" t="n">
-        <v>190.1723742987259</v>
+        <v>190.1723742987258</v>
       </c>
       <c r="Q10" t="n">
-        <v>190.1723742987259</v>
+        <v>109.606010787768</v>
       </c>
       <c r="R10" t="n">
-        <v>190.1723742987259</v>
+        <v>109.606010787768</v>
       </c>
       <c r="S10" t="n">
-        <v>190.1723742987259</v>
+        <v>109.606010787768</v>
       </c>
       <c r="T10" t="n">
-        <v>190.1723742987259</v>
+        <v>109.606010787768</v>
       </c>
       <c r="U10" t="n">
-        <v>190.1723742987259</v>
+        <v>109.606010787768</v>
       </c>
       <c r="V10" t="n">
-        <v>190.1723742987259</v>
+        <v>109.606010787768</v>
       </c>
       <c r="W10" t="n">
-        <v>70.82837988322922</v>
+        <v>109.606010787768</v>
       </c>
       <c r="X10" t="n">
-        <v>70.82837988322922</v>
+        <v>109.606010787768</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.452044357707335</v>
+        <v>109.606010787768</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1957.216260630392</v>
+        <v>1171.417838077945</v>
       </c>
       <c r="C11" t="n">
-        <v>1957.216260630392</v>
+        <v>800.7258222406294</v>
       </c>
       <c r="D11" t="n">
-        <v>1597.009459868171</v>
+        <v>440.5190214784087</v>
       </c>
       <c r="E11" t="n">
-        <v>1210.021544963841</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="F11" t="n">
-        <v>798.6136020542033</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9492113818482</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="H11" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="I11" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J11" t="n">
-        <v>167.7421803733075</v>
+        <v>167.7421803733077</v>
       </c>
       <c r="K11" t="n">
-        <v>461.1915665632929</v>
+        <v>461.1915665632933</v>
       </c>
       <c r="L11" t="n">
-        <v>877.2105568248483</v>
+        <v>877.2105568248487</v>
       </c>
       <c r="M11" t="n">
         <v>1355.324135626645</v>
       </c>
       <c r="N11" t="n">
-        <v>1825.656916993542</v>
+        <v>1825.656916993543</v>
       </c>
       <c r="O11" t="n">
         <v>2223.65047400805</v>
       </c>
       <c r="P11" t="n">
-        <v>2526.389973845557</v>
+        <v>2526.389973845558</v>
       </c>
       <c r="Q11" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R11" t="n">
-        <v>2676.555328703891</v>
+        <v>2620.010037624015</v>
       </c>
       <c r="S11" t="n">
-        <v>2500.076526173014</v>
+        <v>2443.531235093138</v>
       </c>
       <c r="T11" t="n">
-        <v>2500.076526173014</v>
+        <v>2224.358514782328</v>
       </c>
       <c r="U11" t="n">
-        <v>2500.076526173014</v>
+        <v>2224.358514782328</v>
       </c>
       <c r="V11" t="n">
-        <v>2500.076526173014</v>
+        <v>2224.358514782328</v>
       </c>
       <c r="W11" t="n">
-        <v>2500.076526173014</v>
+        <v>2224.358514782328</v>
       </c>
       <c r="X11" t="n">
-        <v>2344.808593955034</v>
+        <v>1949.603173171512</v>
       </c>
       <c r="Y11" t="n">
-        <v>2344.808593955034</v>
+        <v>1559.010171402587</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>979.479497967086</v>
+        <v>979.4794979670864</v>
       </c>
       <c r="C12" t="n">
-        <v>806.7263828889031</v>
+        <v>806.7263828889035</v>
       </c>
       <c r="D12" t="n">
-        <v>659.138076247847</v>
+        <v>659.1380762478473</v>
       </c>
       <c r="E12" t="n">
-        <v>501.5285472507018</v>
+        <v>501.5285472507019</v>
       </c>
       <c r="F12" t="n">
-        <v>356.5727572673186</v>
+        <v>356.5727572673187</v>
       </c>
       <c r="G12" t="n">
         <v>219.9143827707587</v>
@@ -5117,55 +5117,55 @@
         <v>115.4714096068661</v>
       </c>
       <c r="I12" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J12" t="n">
-        <v>129.3364848865957</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="K12" t="n">
-        <v>385.5055637579836</v>
+        <v>309.7001854454658</v>
       </c>
       <c r="L12" t="n">
-        <v>790.8061104916227</v>
+        <v>715.0007321791048</v>
       </c>
       <c r="M12" t="n">
-        <v>1316.57292581273</v>
+        <v>1240.767547500212</v>
       </c>
       <c r="N12" t="n">
-        <v>1725.940263988108</v>
+        <v>1795.848577958314</v>
       </c>
       <c r="O12" t="n">
-        <v>2166.102944282447</v>
+        <v>2236.011258252654</v>
       </c>
       <c r="P12" t="n">
-        <v>2502.945759567337</v>
+        <v>2572.854073537544</v>
       </c>
       <c r="Q12" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R12" t="n">
-        <v>2626.774708455267</v>
+        <v>2626.774708455268</v>
       </c>
       <c r="S12" t="n">
-        <v>2469.829437388747</v>
+        <v>2469.829437388748</v>
       </c>
       <c r="T12" t="n">
-        <v>2272.420954324036</v>
+        <v>2272.420954324037</v>
       </c>
       <c r="U12" t="n">
-        <v>2045.543118600484</v>
+        <v>2045.543118600485</v>
       </c>
       <c r="V12" t="n">
-        <v>1811.291875126085</v>
+        <v>1811.291875126086</v>
       </c>
       <c r="W12" t="n">
-        <v>1558.777383459418</v>
+        <v>1558.777383459419</v>
       </c>
       <c r="X12" t="n">
         <v>1352.250484864996</v>
       </c>
       <c r="Y12" t="n">
-        <v>1146.522049088646</v>
+        <v>1146.522049088647</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2002.391970345136</v>
+        <v>222.4971585238877</v>
       </c>
       <c r="C13" t="n">
-        <v>2002.391970345136</v>
+        <v>222.4971585238877</v>
       </c>
       <c r="D13" t="n">
-        <v>2002.391970345136</v>
+        <v>222.4971585238877</v>
       </c>
       <c r="E13" t="n">
-        <v>2002.391970345136</v>
+        <v>222.4971585238877</v>
       </c>
       <c r="F13" t="n">
-        <v>2002.391970345136</v>
+        <v>222.4971585238877</v>
       </c>
       <c r="G13" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="H13" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="I13" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J13" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="K13" t="n">
-        <v>2058.295281151352</v>
+        <v>109.4344173802943</v>
       </c>
       <c r="L13" t="n">
-        <v>2185.635887283475</v>
+        <v>236.775023512417</v>
       </c>
       <c r="M13" t="n">
-        <v>2330.491601601709</v>
+        <v>381.630737830651</v>
       </c>
       <c r="N13" t="n">
-        <v>2477.044232696737</v>
+        <v>528.1833689256792</v>
       </c>
       <c r="O13" t="n">
-        <v>2597.072711188271</v>
+        <v>648.2118474172128</v>
       </c>
       <c r="P13" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Q13" t="n">
-        <v>2647.854549863712</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R13" t="n">
-        <v>2500.562066762971</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="S13" t="n">
-        <v>2286.752928483431</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="T13" t="n">
-        <v>2286.752928483431</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="U13" t="n">
-        <v>2002.391970345136</v>
+        <v>291.4940795546063</v>
       </c>
       <c r="V13" t="n">
-        <v>2002.391970345136</v>
+        <v>291.4940795546063</v>
       </c>
       <c r="W13" t="n">
-        <v>2002.391970345136</v>
+        <v>291.4940795546063</v>
       </c>
       <c r="X13" t="n">
-        <v>2002.391970345136</v>
+        <v>222.4971585238877</v>
       </c>
       <c r="Y13" t="n">
-        <v>2002.391970345136</v>
+        <v>222.4971585238877</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1751.072411200432</v>
+        <v>882.6034401560702</v>
       </c>
       <c r="C14" t="n">
-        <v>1751.072411200432</v>
+        <v>882.6034401560702</v>
       </c>
       <c r="D14" t="n">
-        <v>1751.072411200432</v>
+        <v>882.6034401560702</v>
       </c>
       <c r="E14" t="n">
-        <v>1364.084496296101</v>
+        <v>882.6034401560702</v>
       </c>
       <c r="F14" t="n">
-        <v>952.6765533864634</v>
+        <v>471.1954972464329</v>
       </c>
       <c r="G14" t="n">
-        <v>535.0121627141084</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="H14" t="n">
-        <v>207.594057906338</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="I14" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J14" t="n">
         <v>167.7421803733075</v>
       </c>
       <c r="K14" t="n">
-        <v>461.1915665632929</v>
+        <v>461.1915665632931</v>
       </c>
       <c r="L14" t="n">
-        <v>877.2105568248481</v>
+        <v>877.2105568248485</v>
       </c>
       <c r="M14" t="n">
         <v>1355.324135626645</v>
       </c>
       <c r="N14" t="n">
-        <v>1825.656916993542</v>
+        <v>1825.656916993543</v>
       </c>
       <c r="O14" t="n">
         <v>2223.65047400805</v>
       </c>
       <c r="P14" t="n">
-        <v>2526.389973845557</v>
+        <v>2526.389973845558</v>
       </c>
       <c r="Q14" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R14" t="n">
-        <v>2620.010037624014</v>
+        <v>2620.010037624015</v>
       </c>
       <c r="S14" t="n">
-        <v>2443.531235093138</v>
+        <v>2620.010037624015</v>
       </c>
       <c r="T14" t="n">
-        <v>2224.358514782327</v>
+        <v>2400.837317313204</v>
       </c>
       <c r="U14" t="n">
-        <v>1970.451037928299</v>
+        <v>2400.837317313204</v>
       </c>
       <c r="V14" t="n">
-        <v>1970.451037928299</v>
+        <v>2389.467276392792</v>
       </c>
       <c r="W14" t="n">
-        <v>1970.451037928299</v>
+        <v>2035.396451139707</v>
       </c>
       <c r="X14" t="n">
-        <v>1970.451037928299</v>
+        <v>1660.788775249637</v>
       </c>
       <c r="Y14" t="n">
-        <v>1970.451037928299</v>
+        <v>1270.195773480712</v>
       </c>
     </row>
     <row r="15">
@@ -5333,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>979.4794979670861</v>
+        <v>979.479497967086</v>
       </c>
       <c r="C15" t="n">
-        <v>806.7263828889033</v>
+        <v>806.7263828889031</v>
       </c>
       <c r="D15" t="n">
-        <v>659.1380762478473</v>
+        <v>659.138076247847</v>
       </c>
       <c r="E15" t="n">
-        <v>501.528547250702</v>
+        <v>501.5285472507018</v>
       </c>
       <c r="F15" t="n">
         <v>356.5727572673186</v>
@@ -5354,55 +5354,55 @@
         <v>115.4714096068661</v>
       </c>
       <c r="I15" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J15" t="n">
-        <v>129.3364848865957</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="K15" t="n">
-        <v>385.5055637579836</v>
+        <v>309.7001854454658</v>
       </c>
       <c r="L15" t="n">
-        <v>790.8061104916227</v>
+        <v>715.0007321791048</v>
       </c>
       <c r="M15" t="n">
-        <v>1316.572925812729</v>
+        <v>1240.767547500212</v>
       </c>
       <c r="N15" t="n">
-        <v>1871.653956270832</v>
+        <v>1795.848577958314</v>
       </c>
       <c r="O15" t="n">
-        <v>2311.81663656517</v>
+        <v>2236.011258252654</v>
       </c>
       <c r="P15" t="n">
-        <v>2648.659451850061</v>
+        <v>2572.854073537544</v>
       </c>
       <c r="Q15" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R15" t="n">
-        <v>2626.774708455267</v>
+        <v>2626.774708455268</v>
       </c>
       <c r="S15" t="n">
-        <v>2469.829437388747</v>
+        <v>2469.829437388748</v>
       </c>
       <c r="T15" t="n">
-        <v>2272.420954324036</v>
+        <v>2272.420954324037</v>
       </c>
       <c r="U15" t="n">
-        <v>2045.543118600484</v>
+        <v>2045.543118600485</v>
       </c>
       <c r="V15" t="n">
-        <v>1811.291875126085</v>
+        <v>1811.291875126086</v>
       </c>
       <c r="W15" t="n">
-        <v>1558.777383459418</v>
+        <v>1558.777383459419</v>
       </c>
       <c r="X15" t="n">
         <v>1352.250484864996</v>
       </c>
       <c r="Y15" t="n">
-        <v>1146.522049088647</v>
+        <v>1146.522049088646</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>384.6204313082467</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="C16" t="n">
-        <v>384.6204313082467</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="D16" t="n">
-        <v>384.6204313082467</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="E16" t="n">
-        <v>236.1612149716819</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="F16" t="n">
-        <v>236.1612149716819</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="G16" t="n">
-        <v>236.1612149716819</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="H16" t="n">
-        <v>236.1612149716819</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="I16" t="n">
-        <v>99.47634060639648</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J16" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="K16" t="n">
         <v>109.4344173802943</v>
@@ -5469,19 +5469,19 @@
         <v>727.6944649328329</v>
       </c>
       <c r="U16" t="n">
-        <v>727.6944649328329</v>
+        <v>438.7865626553465</v>
       </c>
       <c r="V16" t="n">
-        <v>727.6944649328329</v>
+        <v>183.2952989513676</v>
       </c>
       <c r="W16" t="n">
-        <v>605.5786877403358</v>
+        <v>183.2952989513676</v>
       </c>
       <c r="X16" t="n">
-        <v>605.5786877403358</v>
+        <v>183.2952989513676</v>
       </c>
       <c r="Y16" t="n">
-        <v>384.6204313082467</v>
+        <v>53.53110657407782</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1638.599299016663</v>
+        <v>1253.295455993386</v>
       </c>
       <c r="C17" t="n">
-        <v>1638.599299016663</v>
+        <v>882.6034401560702</v>
       </c>
       <c r="D17" t="n">
-        <v>1278.392498254442</v>
+        <v>882.6034401560702</v>
       </c>
       <c r="E17" t="n">
-        <v>1278.392498254442</v>
+        <v>882.6034401560702</v>
       </c>
       <c r="F17" t="n">
-        <v>866.9845553448049</v>
+        <v>471.1954972464329</v>
       </c>
       <c r="G17" t="n">
-        <v>449.3201646724499</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="H17" t="n">
-        <v>207.594057906338</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="I17" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J17" t="n">
-        <v>167.7421803733073</v>
+        <v>167.7421803733075</v>
       </c>
       <c r="K17" t="n">
-        <v>461.1915665632927</v>
+        <v>461.191566563293</v>
       </c>
       <c r="L17" t="n">
-        <v>877.210556824848</v>
+        <v>877.2105568248485</v>
       </c>
       <c r="M17" t="n">
         <v>1355.324135626645</v>
       </c>
       <c r="N17" t="n">
-        <v>1825.656916993542</v>
+        <v>1825.656916993543</v>
       </c>
       <c r="O17" t="n">
         <v>2223.65047400805</v>
       </c>
       <c r="P17" t="n">
-        <v>2526.389973845557</v>
+        <v>2526.389973845558</v>
       </c>
       <c r="Q17" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R17" t="n">
-        <v>2620.010037624014</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="S17" t="n">
-        <v>2443.531235093138</v>
+        <v>2500.076526173014</v>
       </c>
       <c r="T17" t="n">
-        <v>2224.358514782327</v>
+        <v>2280.903805862204</v>
       </c>
       <c r="U17" t="n">
-        <v>1970.451037928299</v>
+        <v>2026.996329008175</v>
       </c>
       <c r="V17" t="n">
-        <v>1638.599299016663</v>
+        <v>1695.14459009654</v>
       </c>
       <c r="W17" t="n">
-        <v>1638.599299016663</v>
+        <v>1341.073764843454</v>
       </c>
       <c r="X17" t="n">
-        <v>1638.599299016663</v>
+        <v>1253.295455993386</v>
       </c>
       <c r="Y17" t="n">
-        <v>1638.599299016663</v>
+        <v>1253.295455993386</v>
       </c>
     </row>
     <row r="18">
@@ -5573,37 +5573,37 @@
         <v>979.4794979670864</v>
       </c>
       <c r="C18" t="n">
-        <v>806.7263828889035</v>
+        <v>806.7263828889036</v>
       </c>
       <c r="D18" t="n">
         <v>659.1380762478473</v>
       </c>
       <c r="E18" t="n">
-        <v>501.5285472507019</v>
+        <v>501.528547250702</v>
       </c>
       <c r="F18" t="n">
-        <v>356.5727572673187</v>
+        <v>356.5727572673188</v>
       </c>
       <c r="G18" t="n">
-        <v>219.9143827707587</v>
+        <v>219.9143827707588</v>
       </c>
       <c r="H18" t="n">
         <v>115.4714096068661</v>
       </c>
       <c r="I18" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J18" t="n">
-        <v>129.3364848865957</v>
+        <v>129.3364848865958</v>
       </c>
       <c r="K18" t="n">
-        <v>385.5055637579836</v>
+        <v>385.5055637579837</v>
       </c>
       <c r="L18" t="n">
-        <v>790.8061104916227</v>
+        <v>790.8061104916228</v>
       </c>
       <c r="M18" t="n">
-        <v>1316.572925812729</v>
+        <v>1316.57292581273</v>
       </c>
       <c r="N18" t="n">
         <v>1725.940263988108</v>
@@ -5612,13 +5612,13 @@
         <v>2166.102944282447</v>
       </c>
       <c r="P18" t="n">
-        <v>2502.945759567337</v>
+        <v>2502.945759567338</v>
       </c>
       <c r="Q18" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R18" t="n">
-        <v>2626.774708455267</v>
+        <v>2626.774708455268</v>
       </c>
       <c r="S18" t="n">
         <v>2469.829437388748</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2173.763789527971</v>
+        <v>545.7917462553745</v>
       </c>
       <c r="C19" t="n">
-        <v>2004.736968385342</v>
+        <v>545.7917462553745</v>
       </c>
       <c r="D19" t="n">
-        <v>2004.736968385342</v>
+        <v>486.3105724373468</v>
       </c>
       <c r="E19" t="n">
-        <v>2004.736968385342</v>
+        <v>337.8513561007819</v>
       </c>
       <c r="F19" t="n">
-        <v>2002.391970345136</v>
+        <v>190.2159809393632</v>
       </c>
       <c r="G19" t="n">
-        <v>2002.391970345136</v>
+        <v>190.2159809393632</v>
       </c>
       <c r="H19" t="n">
-        <v>2002.391970345136</v>
+        <v>190.2159809393632</v>
       </c>
       <c r="I19" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J19" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="K19" t="n">
-        <v>2058.295281151352</v>
+        <v>109.4344173802943</v>
       </c>
       <c r="L19" t="n">
-        <v>2185.635887283475</v>
+        <v>236.775023512417</v>
       </c>
       <c r="M19" t="n">
-        <v>2330.491601601709</v>
+        <v>381.630737830651</v>
       </c>
       <c r="N19" t="n">
-        <v>2477.044232696737</v>
+        <v>528.1833689256792</v>
       </c>
       <c r="O19" t="n">
-        <v>2597.072711188271</v>
+        <v>648.2118474172128</v>
       </c>
       <c r="P19" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Q19" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R19" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S19" t="n">
-        <v>2462.74619042435</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T19" t="n">
-        <v>2462.74619042435</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="U19" t="n">
-        <v>2462.74619042435</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="V19" t="n">
-        <v>2462.74619042435</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="W19" t="n">
-        <v>2173.763789527971</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="X19" t="n">
-        <v>2173.763789527971</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Y19" t="n">
-        <v>2173.763789527971</v>
+        <v>727.6944649328329</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1158.820402816424</v>
+        <v>966.4660889533841</v>
       </c>
       <c r="C20" t="n">
-        <v>1158.820402816424</v>
+        <v>966.4660889533841</v>
       </c>
       <c r="D20" t="n">
-        <v>798.6136020542033</v>
+        <v>966.4660889533841</v>
       </c>
       <c r="E20" t="n">
-        <v>798.6136020542033</v>
+        <v>966.4660889533841</v>
       </c>
       <c r="F20" t="n">
-        <v>798.6136020542033</v>
+        <v>555.0581460437468</v>
       </c>
       <c r="G20" t="n">
-        <v>380.9492113818482</v>
+        <v>137.3937553713918</v>
       </c>
       <c r="H20" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="I20" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J20" t="n">
-        <v>167.7421803733073</v>
+        <v>167.7421803733075</v>
       </c>
       <c r="K20" t="n">
-        <v>461.1915665632927</v>
+        <v>461.1915665632929</v>
       </c>
       <c r="L20" t="n">
-        <v>877.210556824848</v>
+        <v>877.2105568248483</v>
       </c>
       <c r="M20" t="n">
         <v>1355.324135626645</v>
@@ -5770,7 +5770,7 @@
         <v>2223.65047400805</v>
       </c>
       <c r="P20" t="n">
-        <v>2526.389973845557</v>
+        <v>2526.389973845558</v>
       </c>
       <c r="Q20" t="n">
         <v>2676.555328703891</v>
@@ -5782,22 +5782,22 @@
         <v>2500.076526173014</v>
       </c>
       <c r="T20" t="n">
-        <v>2500.076526173014</v>
+        <v>2280.903805862204</v>
       </c>
       <c r="U20" t="n">
-        <v>2246.169049318985</v>
+        <v>2026.996329008175</v>
       </c>
       <c r="V20" t="n">
-        <v>2246.169049318985</v>
+        <v>1695.14459009654</v>
       </c>
       <c r="W20" t="n">
-        <v>1892.0982240659</v>
+        <v>1341.073764843454</v>
       </c>
       <c r="X20" t="n">
-        <v>1517.49054817583</v>
+        <v>966.4660889533841</v>
       </c>
       <c r="Y20" t="n">
-        <v>1158.820402816424</v>
+        <v>966.4660889533841</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>979.479497967086</v>
+        <v>979.4794979670864</v>
       </c>
       <c r="C21" t="n">
-        <v>806.7263828889031</v>
+        <v>806.7263828889036</v>
       </c>
       <c r="D21" t="n">
-        <v>659.138076247847</v>
+        <v>659.1380762478472</v>
       </c>
       <c r="E21" t="n">
         <v>501.5285472507018</v>
       </c>
       <c r="F21" t="n">
-        <v>356.5727572673186</v>
+        <v>356.5727572673187</v>
       </c>
       <c r="G21" t="n">
         <v>219.9143827707587</v>
@@ -5828,7 +5828,7 @@
         <v>115.4714096068661</v>
       </c>
       <c r="I21" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J21" t="n">
         <v>129.3364848865957</v>
@@ -5846,37 +5846,37 @@
         <v>1871.653956270832</v>
       </c>
       <c r="O21" t="n">
-        <v>2166.102944282447</v>
+        <v>2311.81663656517</v>
       </c>
       <c r="P21" t="n">
-        <v>2502.945759567337</v>
+        <v>2648.659451850061</v>
       </c>
       <c r="Q21" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R21" t="n">
-        <v>2626.774708455267</v>
+        <v>2626.774708455268</v>
       </c>
       <c r="S21" t="n">
-        <v>2469.829437388747</v>
+        <v>2469.829437388748</v>
       </c>
       <c r="T21" t="n">
-        <v>2272.420954324036</v>
+        <v>2272.420954324037</v>
       </c>
       <c r="U21" t="n">
-        <v>2045.543118600484</v>
+        <v>2045.543118600485</v>
       </c>
       <c r="V21" t="n">
-        <v>1811.291875126085</v>
+        <v>1811.291875126086</v>
       </c>
       <c r="W21" t="n">
-        <v>1558.777383459418</v>
+        <v>1558.77738345942</v>
       </c>
       <c r="X21" t="n">
-        <v>1352.250484864996</v>
+        <v>1352.250484864997</v>
       </c>
       <c r="Y21" t="n">
-        <v>1146.522049088646</v>
+        <v>1146.522049088647</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>438.7865626553465</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="C22" t="n">
-        <v>438.7865626553465</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="D22" t="n">
-        <v>438.7865626553465</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="E22" t="n">
-        <v>290.3273463187817</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="F22" t="n">
-        <v>142.691971157363</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="G22" t="n">
-        <v>99.47634060639648</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="H22" t="n">
-        <v>99.47634060639648</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="I22" t="n">
-        <v>99.47634060639648</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J22" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="K22" t="n">
         <v>109.4344173802943</v>
@@ -5934,28 +5934,28 @@
         <v>727.6944649328329</v>
       </c>
       <c r="R22" t="n">
-        <v>727.6944649328329</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="S22" t="n">
-        <v>727.6944649328329</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="T22" t="n">
-        <v>727.6944649328329</v>
+        <v>352.4096178820436</v>
       </c>
       <c r="U22" t="n">
-        <v>438.7865626553465</v>
+        <v>352.4096178820436</v>
       </c>
       <c r="V22" t="n">
-        <v>438.7865626553465</v>
+        <v>352.4096178820436</v>
       </c>
       <c r="W22" t="n">
-        <v>438.7865626553465</v>
+        <v>352.4096178820436</v>
       </c>
       <c r="X22" t="n">
-        <v>438.7865626553465</v>
+        <v>352.4096178820436</v>
       </c>
       <c r="Y22" t="n">
-        <v>438.7865626553465</v>
+        <v>235.4338252515362</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1036.892766453973</v>
+        <v>1914.355319489179</v>
       </c>
       <c r="C23" t="n">
-        <v>666.2007506166575</v>
+        <v>1543.663303651863</v>
       </c>
       <c r="D23" t="n">
-        <v>666.2007506166575</v>
+        <v>1269.591355060401</v>
       </c>
       <c r="E23" t="n">
-        <v>666.2007506166575</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="F23" t="n">
-        <v>380.9492113818482</v>
+        <v>471.1954972464328</v>
       </c>
       <c r="G23" t="n">
-        <v>380.9492113818482</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H23" t="n">
         <v>53.53110657407781</v>
@@ -5989,13 +5989,13 @@
         <v>53.53110657407781</v>
       </c>
       <c r="J23" t="n">
-        <v>167.7421803733073</v>
+        <v>167.7421803733074</v>
       </c>
       <c r="K23" t="n">
-        <v>461.1915665632927</v>
+        <v>461.1915665632928</v>
       </c>
       <c r="L23" t="n">
-        <v>877.210556824848</v>
+        <v>877.2105568248481</v>
       </c>
       <c r="M23" t="n">
         <v>1355.324135626645</v>
@@ -6013,28 +6013,28 @@
         <v>2676.555328703891</v>
       </c>
       <c r="R23" t="n">
-        <v>2620.010037624014</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="S23" t="n">
-        <v>2620.010037624014</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="T23" t="n">
-        <v>2400.837317313204</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="U23" t="n">
-        <v>2146.929840459175</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="V23" t="n">
-        <v>1815.07810154754</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="W23" t="n">
-        <v>1815.07810154754</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="X23" t="n">
-        <v>1815.07810154754</v>
+        <v>2301.947652813821</v>
       </c>
       <c r="Y23" t="n">
-        <v>1424.485099778615</v>
+        <v>2301.947652813821</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>53.53110657407781</v>
       </c>
       <c r="J24" t="n">
-        <v>129.3364848865957</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K24" t="n">
-        <v>385.5055637579836</v>
+        <v>309.7001854454657</v>
       </c>
       <c r="L24" t="n">
-        <v>790.8061104916227</v>
+        <v>715.0007321791047</v>
       </c>
       <c r="M24" t="n">
-        <v>1316.572925812729</v>
+        <v>1240.767547500212</v>
       </c>
       <c r="N24" t="n">
-        <v>1871.653956270832</v>
+        <v>1795.848577958314</v>
       </c>
       <c r="O24" t="n">
-        <v>2311.81663656517</v>
+        <v>2236.011258252653</v>
       </c>
       <c r="P24" t="n">
-        <v>2648.659451850061</v>
+        <v>2572.854073537543</v>
       </c>
       <c r="Q24" t="n">
         <v>2676.555328703891</v>
@@ -6177,19 +6177,19 @@
         <v>727.6944649328329</v>
       </c>
       <c r="T25" t="n">
-        <v>727.6944649328329</v>
+        <v>499.7021009827838</v>
       </c>
       <c r="U25" t="n">
-        <v>438.7865626553465</v>
+        <v>210.7941987052974</v>
       </c>
       <c r="V25" t="n">
-        <v>438.7865626553465</v>
+        <v>210.7941987052974</v>
       </c>
       <c r="W25" t="n">
-        <v>438.7865626553465</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="X25" t="n">
-        <v>210.3619566631149</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="Y25" t="n">
         <v>53.53110657407781</v>
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1580.713560801156</v>
+        <v>1783.861107154882</v>
       </c>
       <c r="C26" t="n">
-        <v>1210.021544963841</v>
+        <v>1783.861107154882</v>
       </c>
       <c r="D26" t="n">
-        <v>1210.021544963841</v>
+        <v>1423.654306392661</v>
       </c>
       <c r="E26" t="n">
-        <v>1210.021544963841</v>
+        <v>1036.66639148833</v>
       </c>
       <c r="F26" t="n">
-        <v>798.6136020542033</v>
+        <v>625.258448578693</v>
       </c>
       <c r="G26" t="n">
-        <v>380.9492113818482</v>
+        <v>207.594057906338</v>
       </c>
       <c r="H26" t="n">
-        <v>53.53110657407781</v>
+        <v>207.594057906338</v>
       </c>
       <c r="I26" t="n">
         <v>53.53110657407781</v>
       </c>
       <c r="J26" t="n">
-        <v>167.7421803733073</v>
+        <v>167.7421803733075</v>
       </c>
       <c r="K26" t="n">
-        <v>461.1915665632932</v>
+        <v>461.1915665632929</v>
       </c>
       <c r="L26" t="n">
-        <v>877.2105568248489</v>
+        <v>877.2105568248485</v>
       </c>
       <c r="M26" t="n">
-        <v>1355.324135626646</v>
+        <v>1355.324135626645</v>
       </c>
       <c r="N26" t="n">
-        <v>1825.656916993543</v>
+        <v>1825.656916993542</v>
       </c>
       <c r="O26" t="n">
         <v>2223.65047400805</v>
@@ -6253,25 +6253,25 @@
         <v>2620.010037624014</v>
       </c>
       <c r="S26" t="n">
-        <v>2443.531235093138</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="T26" t="n">
-        <v>2322.376719378883</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="U26" t="n">
-        <v>2322.376719378883</v>
+        <v>2562.046442248448</v>
       </c>
       <c r="V26" t="n">
-        <v>2322.376719378883</v>
+        <v>2562.046442248448</v>
       </c>
       <c r="W26" t="n">
-        <v>1968.305894125798</v>
+        <v>2562.046442248448</v>
       </c>
       <c r="X26" t="n">
-        <v>1968.305894125798</v>
+        <v>2562.046442248448</v>
       </c>
       <c r="Y26" t="n">
-        <v>1968.305894125798</v>
+        <v>2171.453440479523</v>
       </c>
     </row>
     <row r="27">
@@ -6317,10 +6317,10 @@
         <v>1316.572925812729</v>
       </c>
       <c r="N27" t="n">
-        <v>1871.653956270832</v>
+        <v>1725.940263988108</v>
       </c>
       <c r="O27" t="n">
-        <v>2311.81663656517</v>
+        <v>2166.102944282447</v>
       </c>
       <c r="P27" t="n">
         <v>2502.945759567337</v>
@@ -6405,31 +6405,31 @@
         <v>727.6944649328329</v>
       </c>
       <c r="Q28" t="n">
-        <v>698.9936860926541</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R28" t="n">
-        <v>551.7012029919139</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S28" t="n">
-        <v>337.8920647123734</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T28" t="n">
-        <v>337.8920647123734</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="U28" t="n">
-        <v>337.8920647123734</v>
+        <v>438.7865626553465</v>
       </c>
       <c r="V28" t="n">
-        <v>82.40080100839447</v>
+        <v>342.5135074704571</v>
       </c>
       <c r="W28" t="n">
-        <v>82.40080100839447</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="X28" t="n">
-        <v>82.40080100839447</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="Y28" t="n">
-        <v>82.40080100839447</v>
+        <v>53.53110657407781</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1171.417838077945</v>
+        <v>1228.87542798808</v>
       </c>
       <c r="C29" t="n">
-        <v>800.7258222406292</v>
+        <v>858.1834121507636</v>
       </c>
       <c r="D29" t="n">
-        <v>440.5190214784086</v>
+        <v>858.1834121507636</v>
       </c>
       <c r="E29" t="n">
-        <v>53.53110657407781</v>
+        <v>471.1954972464328</v>
       </c>
       <c r="F29" t="n">
-        <v>53.53110657407781</v>
+        <v>471.1954972464328</v>
       </c>
       <c r="G29" t="n">
         <v>53.53110657407781</v>
@@ -6487,28 +6487,28 @@
         <v>2676.555328703891</v>
       </c>
       <c r="R29" t="n">
-        <v>2620.010037624014</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="S29" t="n">
-        <v>2443.531235093138</v>
+        <v>2500.076526173014</v>
       </c>
       <c r="T29" t="n">
-        <v>2224.358514782327</v>
+        <v>2280.903805862204</v>
       </c>
       <c r="U29" t="n">
-        <v>1970.451037928299</v>
+        <v>2026.996329008175</v>
       </c>
       <c r="V29" t="n">
-        <v>1970.451037928299</v>
+        <v>1695.144590096539</v>
       </c>
       <c r="W29" t="n">
-        <v>1936.61851573694</v>
+        <v>1603.48310387815</v>
       </c>
       <c r="X29" t="n">
-        <v>1562.01083984687</v>
+        <v>1228.87542798808</v>
       </c>
       <c r="Y29" t="n">
-        <v>1171.417838077945</v>
+        <v>1228.87542798808</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>979.479497967086</v>
+        <v>979.4794979670864</v>
       </c>
       <c r="C30" t="n">
-        <v>806.7263828889031</v>
+        <v>806.7263828889035</v>
       </c>
       <c r="D30" t="n">
-        <v>659.138076247847</v>
+        <v>659.1380762478473</v>
       </c>
       <c r="E30" t="n">
-        <v>501.5285472507018</v>
+        <v>501.5285472507019</v>
       </c>
       <c r="F30" t="n">
-        <v>356.5727572673186</v>
+        <v>356.5727572673187</v>
       </c>
       <c r="G30" t="n">
-        <v>219.9143827707587</v>
+        <v>219.9143827707585</v>
       </c>
       <c r="H30" t="n">
         <v>115.4714096068661</v>
@@ -6542,25 +6542,25 @@
         <v>53.53110657407781</v>
       </c>
       <c r="J30" t="n">
-        <v>129.3364848865957</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K30" t="n">
-        <v>385.5055637579836</v>
+        <v>309.7001854454657</v>
       </c>
       <c r="L30" t="n">
-        <v>790.8061104916227</v>
+        <v>715.0007321791047</v>
       </c>
       <c r="M30" t="n">
-        <v>1316.572925812729</v>
+        <v>1240.767547500212</v>
       </c>
       <c r="N30" t="n">
-        <v>1871.653956270832</v>
+        <v>1795.848577958314</v>
       </c>
       <c r="O30" t="n">
-        <v>2311.81663656517</v>
+        <v>2236.011258252653</v>
       </c>
       <c r="P30" t="n">
-        <v>2648.659451850061</v>
+        <v>2572.854073537543</v>
       </c>
       <c r="Q30" t="n">
         <v>2676.555328703891</v>
@@ -6569,25 +6569,25 @@
         <v>2626.774708455267</v>
       </c>
       <c r="S30" t="n">
-        <v>2469.829437388747</v>
+        <v>2469.829437388748</v>
       </c>
       <c r="T30" t="n">
-        <v>2272.420954324036</v>
+        <v>2272.420954324037</v>
       </c>
       <c r="U30" t="n">
-        <v>2045.543118600484</v>
+        <v>2045.543118600485</v>
       </c>
       <c r="V30" t="n">
-        <v>1811.291875126085</v>
+        <v>1811.291875126086</v>
       </c>
       <c r="W30" t="n">
-        <v>1558.777383459418</v>
+        <v>1558.777383459419</v>
       </c>
       <c r="X30" t="n">
         <v>1352.250484864996</v>
       </c>
       <c r="Y30" t="n">
-        <v>1146.522049088646</v>
+        <v>1146.522049088647</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>190.2159809393632</v>
+        <v>380.2569451738162</v>
       </c>
       <c r="C31" t="n">
-        <v>190.2159809393632</v>
+        <v>380.2569451738162</v>
       </c>
       <c r="D31" t="n">
-        <v>190.2159809393632</v>
+        <v>380.2569451738162</v>
       </c>
       <c r="E31" t="n">
-        <v>190.2159809393632</v>
+        <v>380.2569451738162</v>
       </c>
       <c r="F31" t="n">
-        <v>190.2159809393632</v>
+        <v>380.2569451738162</v>
       </c>
       <c r="G31" t="n">
-        <v>190.2159809393632</v>
+        <v>211.290893224009</v>
       </c>
       <c r="H31" t="n">
-        <v>190.2159809393632</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I31" t="n">
         <v>53.53110657407781</v>
@@ -6642,31 +6642,31 @@
         <v>727.6944649328329</v>
       </c>
       <c r="Q31" t="n">
-        <v>698.9936860926541</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R31" t="n">
-        <v>551.7012029919139</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S31" t="n">
-        <v>337.8920647123734</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T31" t="n">
-        <v>337.8920647123734</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="U31" t="n">
-        <v>337.8920647123734</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="V31" t="n">
-        <v>337.8920647123734</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="W31" t="n">
-        <v>337.8920647123734</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="X31" t="n">
-        <v>190.2159809393632</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Y31" t="n">
-        <v>190.2159809393632</v>
+        <v>506.7362085007438</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1284.528473763577</v>
+        <v>1113.146201387292</v>
       </c>
       <c r="C32" t="n">
-        <v>1158.820402816424</v>
+        <v>831.4022980086534</v>
       </c>
       <c r="D32" t="n">
-        <v>798.6136020542033</v>
+        <v>471.1954972464328</v>
       </c>
       <c r="E32" t="n">
-        <v>798.6136020542033</v>
+        <v>471.1954972464328</v>
       </c>
       <c r="F32" t="n">
-        <v>798.6136020542033</v>
+        <v>471.1954972464328</v>
       </c>
       <c r="G32" t="n">
-        <v>380.9492113818482</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H32" t="n">
         <v>53.53110657407781</v>
@@ -6703,16 +6703,16 @@
         <v>167.7421803733073</v>
       </c>
       <c r="K32" t="n">
-        <v>461.1915665632932</v>
+        <v>461.1915665632927</v>
       </c>
       <c r="L32" t="n">
-        <v>877.2105568248489</v>
+        <v>877.210556824848</v>
       </c>
       <c r="M32" t="n">
-        <v>1355.324135626646</v>
+        <v>1355.324135626645</v>
       </c>
       <c r="N32" t="n">
-        <v>1825.656916993543</v>
+        <v>1825.656916993542</v>
       </c>
       <c r="O32" t="n">
         <v>2223.65047400805</v>
@@ -6727,25 +6727,25 @@
         <v>2620.010037624014</v>
       </c>
       <c r="S32" t="n">
-        <v>2443.531235093138</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="T32" t="n">
-        <v>2224.358514782327</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="U32" t="n">
-        <v>1970.451037928299</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="V32" t="n">
-        <v>1638.599299016663</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="W32" t="n">
-        <v>1284.528473763577</v>
+        <v>2265.939212370929</v>
       </c>
       <c r="X32" t="n">
-        <v>1284.528473763577</v>
+        <v>1891.331536480859</v>
       </c>
       <c r="Y32" t="n">
-        <v>1284.528473763577</v>
+        <v>1500.738534711934</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>53.53110657407781</v>
       </c>
       <c r="J33" t="n">
-        <v>129.3364848865957</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K33" t="n">
-        <v>385.5055637579836</v>
+        <v>239.7918714752595</v>
       </c>
       <c r="L33" t="n">
-        <v>790.8061104916227</v>
+        <v>645.0924182088986</v>
       </c>
       <c r="M33" t="n">
-        <v>1316.572925812729</v>
+        <v>1170.859233530005</v>
       </c>
       <c r="N33" t="n">
-        <v>1871.653956270832</v>
+        <v>1725.940263988108</v>
       </c>
       <c r="O33" t="n">
-        <v>2311.81663656517</v>
+        <v>2166.102944282447</v>
       </c>
       <c r="P33" t="n">
-        <v>2648.659451850061</v>
+        <v>2502.945759567337</v>
       </c>
       <c r="Q33" t="n">
         <v>2676.555328703891</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>201.9903229106426</v>
+        <v>685.9686406817302</v>
       </c>
       <c r="C34" t="n">
-        <v>201.9903229106426</v>
+        <v>516.9418195391016</v>
       </c>
       <c r="D34" t="n">
-        <v>201.9903229106426</v>
+        <v>516.9418195391016</v>
       </c>
       <c r="E34" t="n">
-        <v>53.53110657407781</v>
+        <v>516.9418195391016</v>
       </c>
       <c r="F34" t="n">
-        <v>53.53110657407781</v>
+        <v>516.9418195391016</v>
       </c>
       <c r="G34" t="n">
-        <v>53.53110657407781</v>
+        <v>347.9757675892944</v>
       </c>
       <c r="H34" t="n">
-        <v>53.53110657407781</v>
+        <v>190.2159809393632</v>
       </c>
       <c r="I34" t="n">
         <v>53.53110657407781</v>
@@ -6879,31 +6879,31 @@
         <v>727.6944649328329</v>
       </c>
       <c r="Q34" t="n">
-        <v>698.9936860926541</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R34" t="n">
-        <v>698.9936860926541</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S34" t="n">
-        <v>485.1845478131137</v>
+        <v>685.9686406817302</v>
       </c>
       <c r="T34" t="n">
-        <v>457.4815866146216</v>
+        <v>685.9686406817302</v>
       </c>
       <c r="U34" t="n">
-        <v>457.4815866146216</v>
+        <v>685.9686406817302</v>
       </c>
       <c r="V34" t="n">
-        <v>201.9903229106426</v>
+        <v>685.9686406817302</v>
       </c>
       <c r="W34" t="n">
-        <v>201.9903229106426</v>
+        <v>685.9686406817302</v>
       </c>
       <c r="X34" t="n">
-        <v>201.9903229106426</v>
+        <v>685.9686406817302</v>
       </c>
       <c r="Y34" t="n">
-        <v>201.9903229106426</v>
+        <v>685.9686406817302</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1161.632302950124</v>
+        <v>1202.094313845969</v>
       </c>
       <c r="C35" t="n">
-        <v>831.4022980086535</v>
+        <v>831.4022980086534</v>
       </c>
       <c r="D35" t="n">
-        <v>471.1954972464329</v>
+        <v>471.1954972464328</v>
       </c>
       <c r="E35" t="n">
-        <v>471.1954972464329</v>
+        <v>471.1954972464328</v>
       </c>
       <c r="F35" t="n">
-        <v>471.1954972464329</v>
+        <v>471.1954972464328</v>
       </c>
       <c r="G35" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H35" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I35" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J35" t="n">
-        <v>167.7421803733075</v>
+        <v>167.7421803733073</v>
       </c>
       <c r="K35" t="n">
-        <v>461.1915665632929</v>
+        <v>461.1915665632927</v>
       </c>
       <c r="L35" t="n">
-        <v>877.2105568248489</v>
+        <v>877.210556824848</v>
       </c>
       <c r="M35" t="n">
-        <v>1355.324135626646</v>
+        <v>1355.324135626645</v>
       </c>
       <c r="N35" t="n">
-        <v>1825.656916993543</v>
+        <v>1825.656916993542</v>
       </c>
       <c r="O35" t="n">
         <v>2223.65047400805</v>
       </c>
       <c r="P35" t="n">
-        <v>2526.389973845558</v>
+        <v>2526.389973845557</v>
       </c>
       <c r="Q35" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R35" t="n">
-        <v>2676.555328703891</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="S35" t="n">
-        <v>2500.076526173014</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="T35" t="n">
-        <v>2280.903805862204</v>
+        <v>2400.837317313204</v>
       </c>
       <c r="U35" t="n">
-        <v>2280.903805862204</v>
+        <v>2334.350474192621</v>
       </c>
       <c r="V35" t="n">
-        <v>2280.903805862204</v>
+        <v>2334.350474192621</v>
       </c>
       <c r="W35" t="n">
-        <v>1926.832980609119</v>
+        <v>1980.279648939536</v>
       </c>
       <c r="X35" t="n">
-        <v>1552.225304719049</v>
+        <v>1980.279648939536</v>
       </c>
       <c r="Y35" t="n">
-        <v>1161.632302950124</v>
+        <v>1589.686647170611</v>
       </c>
     </row>
     <row r="36">
@@ -6992,10 +6992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>979.4794979670864</v>
+        <v>979.479497967086</v>
       </c>
       <c r="C36" t="n">
-        <v>806.7263828889038</v>
+        <v>806.7263828889031</v>
       </c>
       <c r="D36" t="n">
         <v>659.138076247847</v>
@@ -7004,7 +7004,7 @@
         <v>501.5285472507018</v>
       </c>
       <c r="F36" t="n">
-        <v>356.5727572673187</v>
+        <v>356.5727572673186</v>
       </c>
       <c r="G36" t="n">
         <v>219.9143827707587</v>
@@ -7013,55 +7013,55 @@
         <v>115.4714096068661</v>
       </c>
       <c r="I36" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J36" t="n">
-        <v>129.3364848865957</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K36" t="n">
-        <v>385.5055637579836</v>
+        <v>309.7001854454657</v>
       </c>
       <c r="L36" t="n">
-        <v>790.8061104916227</v>
+        <v>715.0007321791047</v>
       </c>
       <c r="M36" t="n">
-        <v>1316.572925812729</v>
+        <v>1240.767547500212</v>
       </c>
       <c r="N36" t="n">
-        <v>1871.653956270832</v>
+        <v>1795.848577958314</v>
       </c>
       <c r="O36" t="n">
-        <v>2311.81663656517</v>
+        <v>2236.011258252653</v>
       </c>
       <c r="P36" t="n">
-        <v>2502.945759567338</v>
+        <v>2572.854073537543</v>
       </c>
       <c r="Q36" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R36" t="n">
-        <v>2626.774708455268</v>
+        <v>2626.774708455267</v>
       </c>
       <c r="S36" t="n">
-        <v>2469.829437388748</v>
+        <v>2469.829437388747</v>
       </c>
       <c r="T36" t="n">
-        <v>2272.420954324037</v>
+        <v>2272.420954324036</v>
       </c>
       <c r="U36" t="n">
-        <v>2045.543118600485</v>
+        <v>2045.543118600484</v>
       </c>
       <c r="V36" t="n">
-        <v>1811.291875126086</v>
+        <v>1811.291875126085</v>
       </c>
       <c r="W36" t="n">
-        <v>1558.777383459419</v>
+        <v>1558.777383459418</v>
       </c>
       <c r="X36" t="n">
         <v>1352.250484864996</v>
       </c>
       <c r="Y36" t="n">
-        <v>1146.522049088647</v>
+        <v>1146.522049088646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>204.0417798210671</v>
+        <v>676.4123058646212</v>
       </c>
       <c r="C37" t="n">
-        <v>204.0417798210671</v>
+        <v>507.3854847219926</v>
       </c>
       <c r="D37" t="n">
-        <v>53.53110657407782</v>
+        <v>507.3854847219926</v>
       </c>
       <c r="E37" t="n">
-        <v>53.53110657407782</v>
+        <v>358.9262683854278</v>
       </c>
       <c r="F37" t="n">
-        <v>53.53110657407782</v>
+        <v>211.290893224009</v>
       </c>
       <c r="G37" t="n">
-        <v>53.53110657407782</v>
+        <v>211.290893224009</v>
       </c>
       <c r="H37" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I37" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J37" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K37" t="n">
         <v>109.4344173802943</v>
@@ -7116,31 +7116,31 @@
         <v>727.6944649328329</v>
       </c>
       <c r="Q37" t="n">
-        <v>698.9936860926541</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R37" t="n">
-        <v>551.7012029919139</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S37" t="n">
-        <v>337.8920647123734</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T37" t="n">
-        <v>337.8920647123734</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="U37" t="n">
-        <v>337.8920647123734</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="V37" t="n">
-        <v>337.8920647123734</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="W37" t="n">
-        <v>337.8920647123734</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="X37" t="n">
-        <v>337.8920647123734</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Y37" t="n">
-        <v>337.8920647123734</v>
+        <v>727.6944649328329</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1693.614821290297</v>
+        <v>1269.591355060401</v>
       </c>
       <c r="C38" t="n">
-        <v>1693.614821290297</v>
+        <v>1269.591355060401</v>
       </c>
       <c r="D38" t="n">
-        <v>1333.408020528077</v>
+        <v>1269.591355060401</v>
       </c>
       <c r="E38" t="n">
-        <v>946.4201056237457</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="F38" t="n">
-        <v>535.0121627141084</v>
+        <v>471.1954972464328</v>
       </c>
       <c r="G38" t="n">
-        <v>535.0121627141084</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H38" t="n">
-        <v>207.594057906338</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I38" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J38" t="n">
         <v>167.7421803733075</v>
       </c>
       <c r="K38" t="n">
-        <v>461.1915665632929</v>
+        <v>461.1915665632932</v>
       </c>
       <c r="L38" t="n">
-        <v>877.2105568248483</v>
+        <v>877.2105568248489</v>
       </c>
       <c r="M38" t="n">
-        <v>1355.324135626645</v>
+        <v>1355.324135626646</v>
       </c>
       <c r="N38" t="n">
-        <v>1825.656916993542</v>
+        <v>1825.656916993543</v>
       </c>
       <c r="O38" t="n">
         <v>2223.65047400805</v>
       </c>
       <c r="P38" t="n">
-        <v>2526.389973845558</v>
+        <v>2526.389973845557</v>
       </c>
       <c r="Q38" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R38" t="n">
-        <v>2676.555328703891</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="S38" t="n">
-        <v>2676.555328703891</v>
+        <v>2443.531235093138</v>
       </c>
       <c r="T38" t="n">
-        <v>2676.555328703891</v>
+        <v>2224.358514782327</v>
       </c>
       <c r="U38" t="n">
-        <v>2422.647851849862</v>
+        <v>1970.451037928299</v>
       </c>
       <c r="V38" t="n">
-        <v>2090.796112938227</v>
+        <v>1638.599299016663</v>
       </c>
       <c r="W38" t="n">
-        <v>2084.207823059222</v>
+        <v>1284.528473763577</v>
       </c>
       <c r="X38" t="n">
-        <v>2084.207823059222</v>
+        <v>1269.591355060401</v>
       </c>
       <c r="Y38" t="n">
-        <v>1693.614821290297</v>
+        <v>1269.591355060401</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>115.4714096068661</v>
       </c>
       <c r="I39" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J39" t="n">
         <v>129.3364848865957</v>
@@ -7271,28 +7271,28 @@
         <v>2311.81663656517</v>
       </c>
       <c r="P39" t="n">
-        <v>2502.945759567338</v>
+        <v>2648.659451850061</v>
       </c>
       <c r="Q39" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R39" t="n">
-        <v>2626.774708455268</v>
+        <v>2626.774708455267</v>
       </c>
       <c r="S39" t="n">
-        <v>2469.829437388748</v>
+        <v>2469.829437388747</v>
       </c>
       <c r="T39" t="n">
-        <v>2272.420954324037</v>
+        <v>2272.420954324036</v>
       </c>
       <c r="U39" t="n">
-        <v>2045.543118600485</v>
+        <v>2045.543118600484</v>
       </c>
       <c r="V39" t="n">
-        <v>1811.291875126086</v>
+        <v>1811.291875126085</v>
       </c>
       <c r="W39" t="n">
-        <v>1558.777383459419</v>
+        <v>1558.777383459418</v>
       </c>
       <c r="X39" t="n">
         <v>1352.250484864996</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>416.9623780855899</v>
+        <v>549.2837663164448</v>
       </c>
       <c r="C40" t="n">
-        <v>247.9355569429613</v>
+        <v>380.2569451738162</v>
       </c>
       <c r="D40" t="n">
-        <v>247.9355569429613</v>
+        <v>380.2569451738162</v>
       </c>
       <c r="E40" t="n">
-        <v>99.47634060639649</v>
+        <v>380.2569451738162</v>
       </c>
       <c r="F40" t="n">
-        <v>99.47634060639649</v>
+        <v>380.2569451738162</v>
       </c>
       <c r="G40" t="n">
-        <v>99.47634060639649</v>
+        <v>211.290893224009</v>
       </c>
       <c r="H40" t="n">
-        <v>99.47634060639649</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I40" t="n">
-        <v>99.47634060639649</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J40" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K40" t="n">
         <v>109.4344173802943</v>
@@ -7359,25 +7359,25 @@
         <v>727.6944649328329</v>
       </c>
       <c r="S40" t="n">
-        <v>513.8853266532925</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T40" t="n">
-        <v>513.8853266532925</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="U40" t="n">
-        <v>416.9623780855899</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="V40" t="n">
-        <v>416.9623780855899</v>
+        <v>549.2837663164448</v>
       </c>
       <c r="W40" t="n">
-        <v>416.9623780855899</v>
+        <v>549.2837663164448</v>
       </c>
       <c r="X40" t="n">
-        <v>416.9623780855899</v>
+        <v>549.2837663164448</v>
       </c>
       <c r="Y40" t="n">
-        <v>416.9623780855899</v>
+        <v>549.2837663164448</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1366.196716482527</v>
+        <v>1390.039452167811</v>
       </c>
       <c r="C41" t="n">
-        <v>1366.196716482527</v>
+        <v>1390.039452167811</v>
       </c>
       <c r="D41" t="n">
-        <v>1005.989915720306</v>
+        <v>1390.039452167811</v>
       </c>
       <c r="E41" t="n">
-        <v>619.0020008159752</v>
+        <v>1210.021544963841</v>
       </c>
       <c r="F41" t="n">
-        <v>207.594057906338</v>
+        <v>798.6136020542033</v>
       </c>
       <c r="G41" t="n">
-        <v>207.594057906338</v>
+        <v>380.9492113818482</v>
       </c>
       <c r="H41" t="n">
-        <v>207.594057906338</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I41" t="n">
         <v>53.53110657407781</v>
@@ -7417,13 +7417,13 @@
         <v>461.1915665632929</v>
       </c>
       <c r="L41" t="n">
-        <v>877.2105568248483</v>
+        <v>877.2105568248485</v>
       </c>
       <c r="M41" t="n">
         <v>1355.324135626645</v>
       </c>
       <c r="N41" t="n">
-        <v>1825.656916993542</v>
+        <v>1825.656916993543</v>
       </c>
       <c r="O41" t="n">
         <v>2223.65047400805</v>
@@ -7435,28 +7435,28 @@
         <v>2676.555328703891</v>
       </c>
       <c r="R41" t="n">
-        <v>2620.010037624014</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="S41" t="n">
-        <v>2443.531235093138</v>
+        <v>2500.076526173014</v>
       </c>
       <c r="T41" t="n">
-        <v>2443.531235093138</v>
+        <v>2500.076526173014</v>
       </c>
       <c r="U41" t="n">
-        <v>2189.623758239109</v>
+        <v>2500.076526173014</v>
       </c>
       <c r="V41" t="n">
-        <v>1857.772019327473</v>
+        <v>2168.224787261378</v>
       </c>
       <c r="W41" t="n">
-        <v>1503.701194074388</v>
+        <v>2168.224787261378</v>
       </c>
       <c r="X41" t="n">
-        <v>1503.701194074388</v>
+        <v>2168.224787261378</v>
       </c>
       <c r="Y41" t="n">
-        <v>1366.196716482527</v>
+        <v>1777.631785492453</v>
       </c>
     </row>
     <row r="42">
@@ -7481,10 +7481,10 @@
         <v>356.5727572673188</v>
       </c>
       <c r="G42" t="n">
-        <v>219.9143827707587</v>
+        <v>219.9143827707589</v>
       </c>
       <c r="H42" t="n">
-        <v>115.4714096068661</v>
+        <v>115.4714096068663</v>
       </c>
       <c r="I42" t="n">
         <v>53.53110657407781</v>
@@ -7499,7 +7499,7 @@
         <v>790.8061104916227</v>
       </c>
       <c r="M42" t="n">
-        <v>1170.859233530005</v>
+        <v>1316.572925812729</v>
       </c>
       <c r="N42" t="n">
         <v>1725.940263988108</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>222.5579277167064</v>
+        <v>499.7021009827838</v>
       </c>
       <c r="C43" t="n">
-        <v>53.53110657407781</v>
+        <v>499.7021009827838</v>
       </c>
       <c r="D43" t="n">
-        <v>53.53110657407781</v>
+        <v>499.7021009827838</v>
       </c>
       <c r="E43" t="n">
-        <v>53.53110657407781</v>
+        <v>499.7021009827838</v>
       </c>
       <c r="F43" t="n">
-        <v>53.53110657407781</v>
+        <v>380.2569451738162</v>
       </c>
       <c r="G43" t="n">
-        <v>53.53110657407781</v>
+        <v>211.290893224009</v>
       </c>
       <c r="H43" t="n">
         <v>53.53110657407781</v>
@@ -7599,22 +7599,22 @@
         <v>727.6944649328329</v>
       </c>
       <c r="T43" t="n">
-        <v>727.6944649328329</v>
+        <v>499.7021009827838</v>
       </c>
       <c r="U43" t="n">
-        <v>438.7865626553465</v>
+        <v>499.7021009827838</v>
       </c>
       <c r="V43" t="n">
-        <v>438.7865626553465</v>
+        <v>499.7021009827838</v>
       </c>
       <c r="W43" t="n">
-        <v>222.5579277167064</v>
+        <v>499.7021009827838</v>
       </c>
       <c r="X43" t="n">
-        <v>222.5579277167064</v>
+        <v>499.7021009827838</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.5579277167064</v>
+        <v>499.7021009827838</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1446.173179688761</v>
+        <v>936.6673988564157</v>
       </c>
       <c r="C44" t="n">
-        <v>1075.481163851445</v>
+        <v>936.6673988564157</v>
       </c>
       <c r="D44" t="n">
-        <v>1075.481163851445</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="E44" t="n">
-        <v>952.6765533864634</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="F44" t="n">
-        <v>952.6765533864634</v>
+        <v>471.1954972464328</v>
       </c>
       <c r="G44" t="n">
-        <v>535.0121627141084</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H44" t="n">
-        <v>207.594057906338</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I44" t="n">
         <v>53.53110657407781</v>
       </c>
       <c r="J44" t="n">
-        <v>167.7421803733073</v>
+        <v>167.7421803733072</v>
       </c>
       <c r="K44" t="n">
-        <v>461.1915665632928</v>
+        <v>461.1915665632927</v>
       </c>
       <c r="L44" t="n">
-        <v>877.2105568248481</v>
+        <v>877.210556824848</v>
       </c>
       <c r="M44" t="n">
         <v>1355.324135626645</v>
@@ -7678,22 +7678,22 @@
         <v>2443.531235093138</v>
       </c>
       <c r="T44" t="n">
-        <v>2224.358514782327</v>
+        <v>2443.531235093138</v>
       </c>
       <c r="U44" t="n">
-        <v>2224.358514782327</v>
+        <v>2443.531235093138</v>
       </c>
       <c r="V44" t="n">
-        <v>2224.358514782327</v>
+        <v>2443.531235093138</v>
       </c>
       <c r="W44" t="n">
-        <v>2224.358514782327</v>
+        <v>2089.460409840052</v>
       </c>
       <c r="X44" t="n">
-        <v>2224.358514782327</v>
+        <v>1714.852733949982</v>
       </c>
       <c r="Y44" t="n">
-        <v>1833.765513013402</v>
+        <v>1324.259732181057</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>53.53110657407781</v>
       </c>
       <c r="J45" t="n">
-        <v>53.53110657407781</v>
+        <v>129.3364848865957</v>
       </c>
       <c r="K45" t="n">
-        <v>309.7001854454657</v>
+        <v>385.5055637579836</v>
       </c>
       <c r="L45" t="n">
-        <v>715.0007321791047</v>
+        <v>790.8061104916227</v>
       </c>
       <c r="M45" t="n">
-        <v>1240.767547500212</v>
+        <v>1316.572925812729</v>
       </c>
       <c r="N45" t="n">
-        <v>1795.848577958314</v>
+        <v>1871.653956270832</v>
       </c>
       <c r="O45" t="n">
-        <v>2236.011258252653</v>
+        <v>2166.102944282447</v>
       </c>
       <c r="P45" t="n">
-        <v>2572.854073537543</v>
+        <v>2502.945759567337</v>
       </c>
       <c r="Q45" t="n">
         <v>2676.555328703891</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.53110657407781</v>
+        <v>285.8929627032434</v>
       </c>
       <c r="C46" t="n">
-        <v>53.53110657407781</v>
+        <v>116.8661415606148</v>
       </c>
       <c r="D46" t="n">
-        <v>53.53110657407781</v>
+        <v>116.8661415606148</v>
       </c>
       <c r="E46" t="n">
-        <v>53.53110657407781</v>
+        <v>116.8661415606148</v>
       </c>
       <c r="F46" t="n">
-        <v>53.53110657407781</v>
+        <v>116.8661415606148</v>
       </c>
       <c r="G46" t="n">
         <v>53.53110657407781</v>
@@ -7833,25 +7833,25 @@
         <v>727.6944649328329</v>
       </c>
       <c r="S46" t="n">
-        <v>597.9302725555432</v>
+        <v>513.8853266532925</v>
       </c>
       <c r="T46" t="n">
-        <v>597.9302725555432</v>
+        <v>285.8929627032434</v>
       </c>
       <c r="U46" t="n">
-        <v>309.0223702780568</v>
+        <v>285.8929627032434</v>
       </c>
       <c r="V46" t="n">
-        <v>53.53110657407781</v>
+        <v>285.8929627032434</v>
       </c>
       <c r="W46" t="n">
-        <v>53.53110657407781</v>
+        <v>285.8929627032434</v>
       </c>
       <c r="X46" t="n">
-        <v>53.53110657407781</v>
+        <v>285.8929627032434</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.53110657407781</v>
+        <v>285.8929627032434</v>
       </c>
     </row>
   </sheetData>
@@ -7987,16 +7987,16 @@
         <v>284.0692742603754</v>
       </c>
       <c r="M2" t="n">
-        <v>272.5352758302076</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N2" t="n">
-        <v>277.8747566713141</v>
+        <v>271.6254354402928</v>
       </c>
       <c r="O2" t="n">
         <v>224.3457561361446</v>
       </c>
       <c r="P2" t="n">
-        <v>225.4521708613878</v>
+        <v>279.6491905260257</v>
       </c>
       <c r="Q2" t="n">
         <v>220.8075902863009</v>
@@ -8060,22 +8060,22 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K3" t="n">
-        <v>178.9346533383041</v>
+        <v>188.5924226646379</v>
       </c>
       <c r="L3" t="n">
-        <v>189.2875399500152</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M3" t="n">
-        <v>192.7777027386057</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N3" t="n">
-        <v>182.2551889458879</v>
+        <v>172.5974196195541</v>
       </c>
       <c r="O3" t="n">
-        <v>139.0313383333333</v>
+        <v>193.2283579979712</v>
       </c>
       <c r="P3" t="n">
-        <v>130.625047228972</v>
+        <v>184.8220668936099</v>
       </c>
       <c r="Q3" t="n">
         <v>136.482229733871</v>
@@ -8221,19 +8221,19 @@
         <v>214.587604768856</v>
       </c>
       <c r="L5" t="n">
-        <v>284.0692742603754</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M5" t="n">
-        <v>278.7845970612288</v>
+        <v>272.5352758302076</v>
       </c>
       <c r="N5" t="n">
         <v>277.8747566713141</v>
       </c>
       <c r="O5" t="n">
-        <v>272.2934545697612</v>
+        <v>278.5427758007825</v>
       </c>
       <c r="P5" t="n">
-        <v>225.4521708613878</v>
+        <v>279.6491905260257</v>
       </c>
       <c r="Q5" t="n">
         <v>220.8075902863009</v>
@@ -8294,28 +8294,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J6" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K6" t="n">
         <v>134.395403</v>
       </c>
       <c r="L6" t="n">
-        <v>189.2875399500152</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M6" t="n">
-        <v>192.7777027386057</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N6" t="n">
-        <v>128.05816928125</v>
+        <v>182.2551889458879</v>
       </c>
       <c r="O6" t="n">
-        <v>139.0313383333333</v>
+        <v>193.2283579979712</v>
       </c>
       <c r="P6" t="n">
         <v>184.8220668936099</v>
       </c>
       <c r="Q6" t="n">
-        <v>188.4894708262003</v>
+        <v>181.0214800721751</v>
       </c>
       <c r="R6" t="n">
         <v>47.34253660377365</v>
@@ -8455,25 +8455,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K8" t="n">
-        <v>214.6863711679111</v>
+        <v>332.7381592401963</v>
       </c>
       <c r="L8" t="n">
-        <v>348.0228090670793</v>
+        <v>348.0228090670778</v>
       </c>
       <c r="M8" t="n">
-        <v>342.7381318679326</v>
+        <v>342.7381318679311</v>
       </c>
       <c r="N8" t="n">
-        <v>223.6777370066762</v>
+        <v>337.0545317013966</v>
       </c>
       <c r="O8" t="n">
-        <v>342.4963106074862</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P8" t="n">
-        <v>334.6706564983419</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q8" t="n">
-        <v>220.8075902863009</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R8" t="n">
         <v>68.34507666790174</v>
@@ -8531,28 +8531,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J9" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K9" t="n">
-        <v>134.395403</v>
+        <v>252.5459574713402</v>
       </c>
       <c r="L9" t="n">
-        <v>135.0905202853774</v>
+        <v>253.2410747567176</v>
       </c>
       <c r="M9" t="n">
-        <v>256.7312375453096</v>
+        <v>162.491337503251</v>
       </c>
       <c r="N9" t="n">
-        <v>246.2087237525917</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O9" t="n">
-        <v>257.181892804675</v>
+        <v>257.1818928046736</v>
       </c>
       <c r="P9" t="n">
-        <v>244.0018419236938</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8768,7 +8768,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>131.1346767540252</v>
+        <v>54.56358754946162</v>
       </c>
       <c r="K12" t="n">
         <v>275.0438464930818</v>
@@ -8780,7 +8780,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N12" t="n">
-        <v>351.3305215569682</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O12" t="n">
         <v>409.6168120477987</v>
@@ -8789,7 +8789,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
-        <v>218.4803792452831</v>
+        <v>147.8659206895193</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -9005,7 +9005,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>131.1346767540252</v>
+        <v>54.56358754946162</v>
       </c>
       <c r="K15" t="n">
         <v>275.0438464930818</v>
@@ -9026,7 +9026,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>71.29483148495635</v>
+        <v>147.8659206895193</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9254,7 +9254,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N18" t="n">
-        <v>351.3305215569685</v>
+        <v>351.3305215569682</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
@@ -9494,13 +9494,13 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O21" t="n">
-        <v>262.4312642874717</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P21" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
-        <v>218.4803792452831</v>
+        <v>71.2948314849568</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9716,7 +9716,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>131.1346767540252</v>
+        <v>54.56358754946164</v>
       </c>
       <c r="K24" t="n">
         <v>275.0438464930818</v>
@@ -9737,7 +9737,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
-        <v>71.29483148495635</v>
+        <v>147.8659206895198</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9965,13 +9965,13 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N27" t="n">
-        <v>498.5160693172957</v>
+        <v>351.3305215569685</v>
       </c>
       <c r="O27" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P27" t="n">
-        <v>184.015731625208</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q27" t="n">
         <v>218.4803792452831</v>
@@ -10190,7 +10190,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>131.1346767540252</v>
+        <v>54.56358754946164</v>
       </c>
       <c r="K30" t="n">
         <v>275.0438464930818</v>
@@ -10211,7 +10211,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q30" t="n">
-        <v>71.29483148495635</v>
+        <v>147.8659206895198</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10427,10 +10427,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>131.1346767540252</v>
+        <v>54.56358754946164</v>
       </c>
       <c r="K33" t="n">
-        <v>275.0438464930818</v>
+        <v>204.429387937318</v>
       </c>
       <c r="L33" t="n">
         <v>385.6739591155975</v>
@@ -10448,7 +10448,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q33" t="n">
-        <v>71.29483148495635</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10664,7 +10664,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>131.1346767540252</v>
+        <v>54.56358754946164</v>
       </c>
       <c r="K36" t="n">
         <v>275.0438464930818</v>
@@ -10682,10 +10682,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P36" t="n">
-        <v>184.0157316252084</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>218.4803792452831</v>
+        <v>147.8659206895198</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10840,7 +10840,7 @@
         <v>396.0321885132552</v>
       </c>
       <c r="P38" t="n">
-        <v>334.6706564983426</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q38" t="n">
         <v>220.8075902863009</v>
@@ -10919,10 +10919,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P39" t="n">
-        <v>184.0157316252084</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>218.4803792452831</v>
+        <v>71.29483148495635</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11147,10 +11147,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M42" t="n">
-        <v>337.1477185396726</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N42" t="n">
-        <v>498.5160693172957</v>
+        <v>351.3305215569685</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>175.8604797789567</v>
+        <v>175.8604797789565</v>
       </c>
       <c r="K44" t="n">
         <v>337.1112290740114</v>
@@ -11375,7 +11375,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>54.56358754946164</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K45" t="n">
         <v>275.0438464930818</v>
@@ -11390,13 +11390,13 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O45" t="n">
-        <v>409.6168120477987</v>
+        <v>262.4312642874717</v>
       </c>
       <c r="P45" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
-        <v>147.8659206895198</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>407.2938634805409</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.4877467656315</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>324.1439237596928</v>
       </c>
       <c r="I11" t="n">
         <v>152.5223218189376</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>55.97983816907737</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.3684020854885</v>
       </c>
       <c r="V11" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225194</v>
       </c>
       <c r="W11" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X11" t="n">
-        <v>217.146346235369</v>
+        <v>98.85381093646184</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23430,7 +23430,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
-        <v>167.2763914303091</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>156.1821887834319</v>
@@ -23439,7 +23439,7 @@
         <v>135.3180256216325</v>
       </c>
       <c r="J13" t="n">
-        <v>45.48578169199547</v>
+        <v>45.48578169199546</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>28.41377105177698</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>211.671046896745</v>
       </c>
       <c r="T13" t="n">
         <v>225.7124403105487</v>
       </c>
       <c r="U13" t="n">
-        <v>4.501474697799495</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.9363510669392</v>
@@ -23481,7 +23481,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X13" t="n">
-        <v>226.1403599323093</v>
+        <v>157.8334081118979</v>
       </c>
       <c r="Y13" t="n">
         <v>218.7486738677682</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>166.5315695308068</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>366.9850956789426</v>
+        <v>366.9850956789427</v>
       </c>
       <c r="D14" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>324.1439237596928</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V14" t="n">
-        <v>328.5332215225193</v>
+        <v>317.2768810113114</v>
       </c>
       <c r="W14" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23661,7 +23661,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F16" t="n">
         <v>146.1590214098045</v>
@@ -23673,10 +23673,10 @@
         <v>156.1821887834319</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>135.3180256216325</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.48578169199546</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>28.413771051777</v>
+        <v>28.41377105177698</v>
       </c>
       <c r="R16" t="n">
         <v>145.8195582697328</v>
@@ -23709,19 +23709,19 @@
         <v>225.7124403105487</v>
       </c>
       <c r="U16" t="n">
-        <v>286.0188232547115</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>165.1979574668434</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X16" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>90.2821234142514</v>
       </c>
     </row>
     <row r="17">
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>383.716409991395</v>
+        <v>383.7164099913951</v>
       </c>
       <c r="C17" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
         <v>383.1180357552875</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>84.83507806124194</v>
+        <v>324.1439237596928</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>55.97983816907741</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>370.8615991311694</v>
+        <v>283.9610733696021</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.6870717512358</v>
+        <v>386.6870717512359</v>
       </c>
     </row>
     <row r="18">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D19" t="n">
-        <v>149.0055665145194</v>
+        <v>90.1192044346719</v>
       </c>
       <c r="E19" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>143.8374733500003</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>167.2763914303091</v>
@@ -23910,10 +23910,10 @@
         <v>156.1821887834319</v>
       </c>
       <c r="I19" t="n">
-        <v>135.3180256216325</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.48578169199548</v>
+        <v>45.48578169199546</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,13 +23934,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>28.413771051777</v>
+        <v>28.41377105177698</v>
       </c>
       <c r="R19" t="n">
         <v>145.8195582697328</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>211.671046896745</v>
       </c>
       <c r="T19" t="n">
         <v>225.7124403105487</v>
@@ -23952,7 +23952,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X19" t="n">
         <v>226.1403599323093</v>
@@ -23974,19 +23974,19 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.1199014503519</v>
       </c>
       <c r="I20" t="n">
         <v>152.5223218189376</v>
@@ -24022,13 +24022,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.60362784542389</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.3365529312023</v>
@@ -24135,13 +24135,13 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>124.4929171848523</v>
+        <v>167.2763914303091</v>
       </c>
       <c r="H22" t="n">
         <v>156.1821887834319</v>
@@ -24150,7 +24150,7 @@
         <v>135.3180256216325</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>45.48578169199548</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>28.413771051777</v>
       </c>
       <c r="R22" t="n">
-        <v>145.8195582697328</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>211.671046896745</v>
       </c>
       <c r="T22" t="n">
-        <v>225.7124403105487</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V22" t="n">
         <v>252.9363510669392</v>
@@ -24195,7 +24195,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.7486738677682</v>
+        <v>102.942639163566</v>
       </c>
     </row>
     <row r="23">
@@ -24211,19 +24211,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>356.6047327545984</v>
+        <v>85.27350364905067</v>
       </c>
       <c r="E23" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>124.8948396380796</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I23" t="n">
         <v>152.5223218189376</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>55.97983816907738</v>
       </c>
       <c r="S23" t="n">
         <v>174.714014505568</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="24">
@@ -24417,7 +24417,7 @@
         <v>211.671046896745</v>
       </c>
       <c r="T25" t="n">
-        <v>225.7124403105487</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W25" t="n">
-        <v>286.0925768874155</v>
+        <v>130.4021156775081</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y25" t="n">
-        <v>63.48613227962144</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="26">
@@ -24445,13 +24445,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D26" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I26" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T26" t="n">
-        <v>97.03802255059</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3684020854885</v>
+        <v>193.9844426636781</v>
       </c>
       <c r="V26" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X26" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>151.5026940007103</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C28" t="n">
         <v>167.3365529312023</v>
@@ -24645,25 +24645,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>28.413771051777</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>145.8195582697328</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>211.671046896745</v>
       </c>
       <c r="T28" t="n">
         <v>225.7124403105487</v>
       </c>
       <c r="U28" t="n">
-        <v>286.0188232547115</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>157.6260264338986</v>
       </c>
       <c r="W28" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>226.1403599323093</v>
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>324.1439237596927</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>55.97983816907738</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -24739,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>317.0359200311099</v>
+        <v>259.7852456443491</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>180.0836914906838</v>
+        <v>54.86922079702549</v>
       </c>
       <c r="C31" t="n">
         <v>167.3365529312023</v>
@@ -24852,13 +24852,13 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>167.2763914303091</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1821887834319</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>135.3180256216325</v>
       </c>
       <c r="J31" t="n">
         <v>45.48578169199548</v>
@@ -24882,13 +24882,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>28.413771051777</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>145.8195582697328</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>211.671046896745</v>
       </c>
       <c r="T31" t="n">
         <v>225.7124403105487</v>
@@ -24903,10 +24903,10 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X31" t="n">
-        <v>79.94103699702913</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>242.5341054412606</v>
+        <v>88.05863133408997</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I32" t="n">
         <v>152.5223218189376</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,25 +25077,25 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C34" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F34" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>167.2763914303091</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1821887834319</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>135.3180256216325</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>45.48578169199548</v>
@@ -25119,22 +25119,22 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>28.413771051777</v>
       </c>
       <c r="R34" t="n">
         <v>145.8195582697328</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>170.3624808881533</v>
       </c>
       <c r="T34" t="n">
-        <v>198.2865087240415</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U34" t="n">
         <v>286.0188232547115</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W34" t="n">
         <v>286.0925768874155</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>40.0573907868872</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>55.97983816907738</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3684020854885</v>
+        <v>185.5464273961115</v>
       </c>
       <c r="V35" t="n">
         <v>328.5332215225193</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.57190944829051</v>
+        <v>129.3143540131542</v>
       </c>
       <c r="C37" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E37" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.2763914303091</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1821887834319</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>135.3180256216325</v>
@@ -25356,13 +25356,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>28.413771051777</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>145.8195582697328</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>211.671046896745</v>
       </c>
       <c r="T37" t="n">
         <v>225.7124403105487</v>
@@ -25396,7 +25396,7 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>55.97983816907738</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>344.0077100203405</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>370.8615991311694</v>
+        <v>356.0738516150246</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="39">
@@ -25557,22 +25557,22 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F40" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>167.2763914303091</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1821887834319</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>135.3180256216325</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>45.48578169199548</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>145.8195582697328</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>211.671046896745</v>
       </c>
       <c r="T40" t="n">
         <v>225.7124403105487</v>
       </c>
       <c r="U40" t="n">
-        <v>190.065104172686</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V40" t="n">
-        <v>252.9363510669392</v>
+        <v>76.30975943671493</v>
       </c>
       <c r="W40" t="n">
         <v>286.0925768874155</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>204.9003076233565</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>55.97983816907738</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -25684,19 +25684,19 @@
         <v>216.980993107702</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y41" t="n">
-        <v>250.5576389352933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,7 +25788,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D43" t="n">
         <v>149.0055665145194</v>
@@ -25797,13 +25797,13 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F43" t="n">
-        <v>146.1590214098045</v>
+        <v>27.90831715892661</v>
       </c>
       <c r="G43" t="n">
-        <v>167.2763914303091</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1821887834319</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>135.3180256216325</v>
@@ -25839,16 +25839,16 @@
         <v>211.671046896745</v>
       </c>
       <c r="T43" t="n">
-        <v>225.7124403105487</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V43" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W43" t="n">
-        <v>72.02622829816187</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X43" t="n">
         <v>226.1403599323093</v>
@@ -25867,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
-        <v>356.6047327545984</v>
+        <v>303.0814136412562</v>
       </c>
       <c r="E44" t="n">
-        <v>261.5414713949559</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F44" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U44" t="n">
         <v>251.3684020854885</v>
@@ -25927,10 +25927,10 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W44" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C46" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>149.0055665145194</v>
@@ -26037,7 +26037,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>167.2763914303091</v>
+        <v>104.5747067936376</v>
       </c>
       <c r="H46" t="n">
         <v>156.1821887834319</v>
@@ -26073,16 +26073,16 @@
         <v>145.8195582697328</v>
       </c>
       <c r="S46" t="n">
-        <v>83.20449644322818</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.7124403105487</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W46" t="n">
         <v>286.0925768874155</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>841461.0047019601</v>
+        <v>841461.00470196</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>618622.6535757977</v>
+        <v>618622.6535757976</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>618622.6535757977</v>
+        <v>618622.6535757976</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>618622.6535757977</v>
+        <v>618622.6535757976</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>618622.6535757977</v>
+        <v>618622.6535757976</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>618622.6535757977</v>
+        <v>618622.6535757976</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>618622.6535757977</v>
+        <v>618622.6535757976</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>618622.6535757977</v>
+        <v>618622.6535757976</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>618622.6535757977</v>
+        <v>618622.6535757976</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>630787.5416765754</v>
+      </c>
+      <c r="C2" t="n">
+        <v>630787.5416765751</v>
+      </c>
+      <c r="D2" t="n">
         <v>630787.5416765757</v>
       </c>
-      <c r="C2" t="n">
-        <v>630787.5416765757</v>
-      </c>
-      <c r="D2" t="n">
-        <v>630787.5416765756</v>
-      </c>
       <c r="E2" t="n">
-        <v>440603.4185688735</v>
+        <v>440603.4185688732</v>
       </c>
       <c r="F2" t="n">
         <v>440603.4185688734</v>
@@ -26331,31 +26331,31 @@
         <v>440603.4185688734</v>
       </c>
       <c r="H2" t="n">
-        <v>440603.4185688735</v>
+        <v>440603.4185688734</v>
       </c>
       <c r="I2" t="n">
         <v>440603.4185688733</v>
       </c>
       <c r="J2" t="n">
-        <v>440603.4185688734</v>
+        <v>440603.4185688733</v>
       </c>
       <c r="K2" t="n">
         <v>440603.4185688733</v>
       </c>
       <c r="L2" t="n">
-        <v>440603.4185688734</v>
+        <v>440603.4185688735</v>
       </c>
       <c r="M2" t="n">
-        <v>440603.4185688734</v>
+        <v>440603.4185688733</v>
       </c>
       <c r="N2" t="n">
         <v>440603.4185688734</v>
       </c>
       <c r="O2" t="n">
-        <v>440603.4185688734</v>
+        <v>440603.4185688735</v>
       </c>
       <c r="P2" t="n">
-        <v>440603.4185688734</v>
+        <v>440603.4185688733</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18162.66782107245</v>
+        <v>18162.66782107244</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19865.8865170064</v>
+        <v>19865.88651700597</v>
       </c>
       <c r="E3" t="n">
-        <v>437706.8631331109</v>
+        <v>437706.8631331114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.158547083771633e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>16186.06407776347</v>
+        <v>16186.06407776311</v>
       </c>
       <c r="M3" t="n">
-        <v>137308.4827571049</v>
+        <v>137308.4827571053</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,16 +26423,16 @@
         <v>368874.6952362111</v>
       </c>
       <c r="D4" t="n">
-        <v>357045.0800799263</v>
+        <v>357045.0800799266</v>
       </c>
       <c r="E4" t="n">
-        <v>64824.50407354511</v>
+        <v>64824.50407354505</v>
       </c>
       <c r="F4" t="n">
-        <v>64824.50407354511</v>
+        <v>64824.50407354507</v>
       </c>
       <c r="G4" t="n">
-        <v>64824.50407354511</v>
+        <v>64824.50407354507</v>
       </c>
       <c r="H4" t="n">
         <v>64824.50407354511</v>
@@ -26441,25 +26441,25 @@
         <v>64824.50407354511</v>
       </c>
       <c r="J4" t="n">
-        <v>64824.50407354512</v>
+        <v>64824.5040735451</v>
       </c>
       <c r="K4" t="n">
         <v>64824.50407354511</v>
       </c>
       <c r="L4" t="n">
+        <v>64824.5040735451</v>
+      </c>
+      <c r="M4" t="n">
         <v>64824.50407354511</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>64824.50407354512</v>
-      </c>
-      <c r="N4" t="n">
-        <v>64824.50407354513</v>
       </c>
       <c r="O4" t="n">
         <v>64824.5040735451</v>
       </c>
       <c r="P4" t="n">
-        <v>64824.50407354512</v>
+        <v>64824.5040735451</v>
       </c>
     </row>
     <row r="5">
@@ -26475,13 +26475,13 @@
         <v>36922.77879560999</v>
       </c>
       <c r="D5" t="n">
-        <v>40811.15371185757</v>
+        <v>40811.15371185749</v>
       </c>
       <c r="E5" t="n">
-        <v>48096.64131659551</v>
+        <v>48096.64131659552</v>
       </c>
       <c r="F5" t="n">
-        <v>48096.64131659551</v>
+        <v>48096.64131659552</v>
       </c>
       <c r="G5" t="n">
         <v>48096.64131659551</v>
@@ -26490,7 +26490,7 @@
         <v>48096.64131659551</v>
       </c>
       <c r="I5" t="n">
-        <v>48096.64131659551</v>
+        <v>48096.6413165955</v>
       </c>
       <c r="J5" t="n">
         <v>48096.64131659551</v>
@@ -26502,10 +26502,10 @@
         <v>48096.64131659551</v>
       </c>
       <c r="M5" t="n">
-        <v>48096.64131659552</v>
+        <v>48096.64131659551</v>
       </c>
       <c r="N5" t="n">
-        <v>48096.64131659552</v>
+        <v>48096.64131659551</v>
       </c>
       <c r="O5" t="n">
         <v>48096.64131659551</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>206827.3998236822</v>
+        <v>206827.399823682</v>
       </c>
       <c r="C6" t="n">
-        <v>224990.0676447546</v>
+        <v>224990.067644754</v>
       </c>
       <c r="D6" t="n">
-        <v>213065.4213677853</v>
+        <v>213065.4213677856</v>
       </c>
       <c r="E6" t="n">
-        <v>-110024.589954378</v>
+        <v>-116159.5616675305</v>
       </c>
       <c r="F6" t="n">
-        <v>327682.2731787328</v>
+        <v>321547.3014655812</v>
       </c>
       <c r="G6" t="n">
-        <v>327682.2731787328</v>
+        <v>321547.3014655812</v>
       </c>
       <c r="H6" t="n">
-        <v>327682.2731787329</v>
+        <v>321547.3014655812</v>
       </c>
       <c r="I6" t="n">
-        <v>327682.2731787327</v>
+        <v>321547.3014655811</v>
       </c>
       <c r="J6" t="n">
-        <v>313501.9481655983</v>
+        <v>307366.9764524465</v>
       </c>
       <c r="K6" t="n">
-        <v>327682.2731787327</v>
+        <v>321547.3014655811</v>
       </c>
       <c r="L6" t="n">
-        <v>311496.2091009693</v>
+        <v>305361.2373878181</v>
       </c>
       <c r="M6" t="n">
-        <v>190373.7904216279</v>
+        <v>184238.8187084757</v>
       </c>
       <c r="N6" t="n">
-        <v>327682.2731787328</v>
+        <v>321547.3014655812</v>
       </c>
       <c r="O6" t="n">
-        <v>327682.2731787328</v>
+        <v>321547.3014655813</v>
       </c>
       <c r="P6" t="n">
-        <v>327682.2731787328</v>
+        <v>321547.301465581</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>340.045886252127</v>
+        <v>340.0458862521271</v>
       </c>
       <c r="F3" t="n">
-        <v>340.045886252127</v>
+        <v>340.0458862521271</v>
       </c>
       <c r="G3" t="n">
-        <v>340.045886252127</v>
+        <v>340.0458862521271</v>
       </c>
       <c r="H3" t="n">
         <v>340.045886252127</v>
@@ -26795,19 +26795,19 @@
         <v>54.19701966463789</v>
       </c>
       <c r="D4" t="n">
-        <v>118.1505544713417</v>
+        <v>118.1505544713402</v>
       </c>
       <c r="E4" t="n">
-        <v>669.1388321759727</v>
+        <v>669.1388321759728</v>
       </c>
       <c r="F4" t="n">
-        <v>669.1388321759727</v>
+        <v>669.1388321759728</v>
       </c>
       <c r="G4" t="n">
-        <v>669.1388321759727</v>
+        <v>669.1388321759728</v>
       </c>
       <c r="H4" t="n">
-        <v>669.1388321759727</v>
+        <v>669.1388321759728</v>
       </c>
       <c r="I4" t="n">
         <v>669.1388321759727</v>
@@ -26822,10 +26822,10 @@
         <v>669.1388321759727</v>
       </c>
       <c r="M4" t="n">
-        <v>669.1388321759728</v>
+        <v>669.1388321759727</v>
       </c>
       <c r="N4" t="n">
-        <v>669.1388321759728</v>
+        <v>669.1388321759727</v>
       </c>
       <c r="O4" t="n">
         <v>669.1388321759727</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.448183854714541e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>340.045886252127</v>
+        <v>340.0458862521271</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>63.9535348067038</v>
+        <v>63.95353480670239</v>
       </c>
       <c r="E4" t="n">
-        <v>550.9882777046309</v>
+        <v>550.9882777046325</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>63.9535348067038</v>
+        <v>63.95353480670235</v>
       </c>
       <c r="M4" t="n">
-        <v>550.9882777046311</v>
+        <v>550.9882777046325</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.448183854714541e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>63.9535348067038</v>
+        <v>63.95353480670239</v>
       </c>
       <c r="M4" t="n">
-        <v>550.9882777046309</v>
+        <v>550.9882777046325</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>329.5193903267572</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C2" t="n">
         <v>366.9850956789426</v>
@@ -27390,10 +27390,10 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>353.096843815903</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>360.657745739193</v>
       </c>
       <c r="H2" t="n">
         <v>338.1439033881534</v>
@@ -27429,7 +27429,7 @@
         <v>87.65380303623918</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8649517235392</v>
+        <v>158.7874939374886</v>
       </c>
       <c r="T2" t="n">
         <v>222.9651171964204</v>
@@ -27441,13 +27441,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W2" t="n">
-        <v>325.6012880988757</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X2" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y2" t="n">
-        <v>332.4900520865979</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="3">
@@ -27463,22 +27463,22 @@
         <v>171.025583927401</v>
       </c>
       <c r="D3" t="n">
-        <v>91.91540391000767</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E3" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
-        <v>143.5062320835493</v>
+        <v>89.3092124189114</v>
       </c>
       <c r="G3" t="n">
         <v>81.82619054040443</v>
       </c>
       <c r="H3" t="n">
-        <v>56.26549585749488</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I3" t="n">
-        <v>86.50354346547167</v>
+        <v>32.30652380083377</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>94.69497976109122</v>
+        <v>46.95824484047818</v>
       </c>
       <c r="S3" t="n">
         <v>168.9616139056444</v>
@@ -27514,7 +27514,7 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U3" t="n">
-        <v>176.9204421465882</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V3" t="n">
         <v>231.9087310396551</v>
@@ -27539,7 +27539,7 @@
         <v>125.8866718260459</v>
       </c>
       <c r="C4" t="n">
-        <v>167.3365529312023</v>
+        <v>151.0144852835077</v>
       </c>
       <c r="D4" t="n">
         <v>149.0055665145194</v>
@@ -27584,16 +27584,16 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R4" t="n">
-        <v>173.3911476697823</v>
+        <v>119.1941280051444</v>
       </c>
       <c r="S4" t="n">
         <v>222.3574069614225</v>
       </c>
       <c r="T4" t="n">
-        <v>212.010398343813</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U4" t="n">
-        <v>231.8552507264263</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V4" t="n">
         <v>252.9363510669392</v>
@@ -27627,19 +27627,19 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F5" t="n">
-        <v>374.4118939637588</v>
+        <v>360.2164056944902</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>360.657745739193</v>
       </c>
       <c r="H5" t="n">
-        <v>283.9468837235155</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I5" t="n">
         <v>205.224307868124</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8649517235392</v>
+        <v>151.6679320589013</v>
       </c>
       <c r="T5" t="n">
         <v>168.7680975317825</v>
@@ -27681,7 +27681,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X5" t="n">
-        <v>316.6645794665315</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y5" t="n">
         <v>386.6870717512358</v>
@@ -27697,13 +27697,13 @@
         <v>111.1751059457069</v>
       </c>
       <c r="C6" t="n">
-        <v>171.025583927401</v>
+        <v>116.8285642627631</v>
       </c>
       <c r="D6" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E6" t="n">
-        <v>108.2966987865608</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F6" t="n">
         <v>143.5062320835493</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>40.49796009645333</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S6" t="n">
         <v>168.9616139056444</v>
@@ -27754,16 +27754,16 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V6" t="n">
-        <v>177.7117113750172</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
-        <v>204.4616296084783</v>
+        <v>150.2646099438404</v>
       </c>
       <c r="Y6" t="n">
-        <v>203.671151418586</v>
+        <v>155.934416497973</v>
       </c>
     </row>
     <row r="7">
@@ -27779,7 +27779,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D7" t="n">
-        <v>149.0055665145194</v>
+        <v>94.80854684988147</v>
       </c>
       <c r="E7" t="n">
         <v>146.9746241731992</v>
@@ -27788,7 +27788,7 @@
         <v>91.9620017451666</v>
       </c>
       <c r="G7" t="n">
-        <v>151.5675212824134</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H7" t="n">
         <v>161.6340720089168</v>
@@ -27797,10 +27797,10 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J7" t="n">
-        <v>88.83884492777894</v>
+        <v>87.29118699791765</v>
       </c>
       <c r="K7" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R7" t="n">
-        <v>173.3911476697823</v>
+        <v>119.1941280051444</v>
       </c>
       <c r="S7" t="n">
-        <v>168.1603872967846</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T7" t="n">
         <v>228.3324659915077</v>
@@ -27839,7 +27839,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X7" t="n">
-        <v>171.9433402676714</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y7" t="n">
         <v>218.7486738677682</v>
@@ -27858,16 +27858,16 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D8" t="n">
-        <v>253.197001510803</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E8" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F8" t="n">
-        <v>289.1433090091991</v>
+        <v>289.1433090092006</v>
       </c>
       <c r="G8" t="n">
-        <v>296.7042109324892</v>
+        <v>296.7042109324907</v>
       </c>
       <c r="H8" t="n">
         <v>338.1439033881534</v>
@@ -27906,16 +27906,16 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T8" t="n">
-        <v>104.8145627250787</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U8" t="n">
         <v>251.4777635765444</v>
       </c>
       <c r="V8" t="n">
-        <v>328.5332215225193</v>
+        <v>210.3826670511791</v>
       </c>
       <c r="W8" t="n">
-        <v>350.5301170005546</v>
+        <v>247.1223857567606</v>
       </c>
       <c r="X8" t="n">
         <v>370.8615991311694</v>
@@ -27931,28 +27931,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.3721256103448</v>
+        <v>47.2215711390046</v>
       </c>
       <c r="C9" t="n">
-        <v>171.025583927401</v>
+        <v>52.87502945606076</v>
       </c>
       <c r="D9" t="n">
-        <v>27.96186910330387</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
-        <v>37.88287923583214</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
-        <v>25.3556776122076</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
         <v>136.0232102050423</v>
       </c>
       <c r="H9" t="n">
-        <v>6.395507143775021</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27997,10 +27997,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
-        <v>204.4616296084783</v>
+        <v>186.8981646955936</v>
       </c>
       <c r="Y9" t="n">
-        <v>203.671151418586</v>
+        <v>85.52059694724579</v>
       </c>
     </row>
     <row r="10">
@@ -28034,10 +28034,10 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J10" t="n">
-        <v>88.83884492777894</v>
+        <v>4.460827879852104</v>
       </c>
       <c r="K10" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>173.3911476697823</v>
@@ -28073,13 +28073,13 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W10" t="n">
-        <v>167.9420224160738</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X10" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y10" t="n">
-        <v>157.9861016975016</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-4.003455285404827e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-4.003455285404827e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-4.003455285404827e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-4.003455285404827e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-4.003455285404827e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-4.003455285404827e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-4.003455285404827e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-4.003455285404827e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-4.003455285404827e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-4.003455285404827e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-4.003455285404827e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-4.003455285404827e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-4.003455285404827e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-4.003455285404827e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-4.003455285404827e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28262,7 +28262,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-2.684316768863934e-12</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -31758,7 +31758,7 @@
         <v>13.99997962846068</v>
       </c>
       <c r="I11" t="n">
-        <v>52.70198604918645</v>
+        <v>52.70198604918647</v>
       </c>
       <c r="J11" t="n">
         <v>116.0239981438853</v>
@@ -31773,7 +31773,7 @@
         <v>240.036511454749</v>
       </c>
       <c r="N11" t="n">
-        <v>243.9205531605333</v>
+        <v>243.9205531605334</v>
       </c>
       <c r="O11" t="n">
         <v>230.327261576937</v>
@@ -31785,13 +31785,13 @@
         <v>147.6226339658669</v>
       </c>
       <c r="R11" t="n">
-        <v>85.87098453179971</v>
+        <v>85.87098453179972</v>
       </c>
       <c r="S11" t="n">
-        <v>31.15093721797124</v>
+        <v>31.15093721797125</v>
       </c>
       <c r="T11" t="n">
-        <v>5.984124088718334</v>
+        <v>5.984124088718336</v>
       </c>
       <c r="U11" t="n">
         <v>0.1093614910559604</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7314194534479714</v>
+        <v>0.7314194534479715</v>
       </c>
       <c r="H12" t="n">
-        <v>7.063972089879093</v>
+        <v>7.063972089879095</v>
       </c>
       <c r="I12" t="n">
         <v>25.1826434630113</v>
       </c>
       <c r="J12" t="n">
-        <v>69.1030984505384</v>
+        <v>69.10309845053841</v>
       </c>
       <c r="K12" t="n">
         <v>118.1082018315525</v>
@@ -31849,22 +31849,22 @@
         <v>158.8110528199203</v>
       </c>
       <c r="M12" t="n">
-        <v>185.3250080074092</v>
+        <v>185.3250080074093</v>
       </c>
       <c r="N12" t="n">
-        <v>190.2300095175932</v>
+        <v>190.2300095175933</v>
       </c>
       <c r="O12" t="n">
         <v>174.0232942596145</v>
       </c>
       <c r="P12" t="n">
-        <v>139.6690358079727</v>
+        <v>139.6690358079728</v>
       </c>
       <c r="Q12" t="n">
-        <v>93.36505163662176</v>
+        <v>93.36505163662177</v>
       </c>
       <c r="R12" t="n">
-        <v>45.41216571495389</v>
+        <v>45.4121657149539</v>
       </c>
       <c r="S12" t="n">
         <v>13.58579554979016</v>
@@ -31873,7 +31873,7 @@
         <v>2.948133674204761</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04811970088473498</v>
+        <v>0.04811970088473499</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6131974997989176</v>
+        <v>0.6131974997989177</v>
       </c>
       <c r="H13" t="n">
-        <v>5.451883225484925</v>
+        <v>5.451883225484926</v>
       </c>
       <c r="I13" t="n">
         <v>18.44052117577109</v>
@@ -31922,28 +31922,28 @@
         <v>43.35306323578347</v>
       </c>
       <c r="K13" t="n">
-        <v>71.24240043118331</v>
+        <v>71.24240043118333</v>
       </c>
       <c r="L13" t="n">
-        <v>91.16574465192272</v>
+        <v>91.16574465192274</v>
       </c>
       <c r="M13" t="n">
-        <v>96.12149535484303</v>
+        <v>96.12149535484305</v>
       </c>
       <c r="N13" t="n">
-        <v>93.83594103741079</v>
+        <v>93.83594103741081</v>
       </c>
       <c r="O13" t="n">
-        <v>86.67267933521431</v>
+        <v>86.67267933521433</v>
       </c>
       <c r="P13" t="n">
-        <v>74.16345033931633</v>
+        <v>74.16345033931634</v>
       </c>
       <c r="Q13" t="n">
-        <v>51.34692882407118</v>
+        <v>51.34692882407119</v>
       </c>
       <c r="R13" t="n">
-        <v>27.5715894000495</v>
+        <v>27.57158940004951</v>
       </c>
       <c r="S13" t="n">
         <v>10.6863600646775</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.367018638199504</v>
+        <v>1.367018638199505</v>
       </c>
       <c r="H14" t="n">
         <v>13.99997962846068</v>
       </c>
       <c r="I14" t="n">
-        <v>52.70198604918644</v>
+        <v>52.70198604918647</v>
       </c>
       <c r="J14" t="n">
         <v>116.0239981438853</v>
@@ -32007,31 +32007,31 @@
         <v>215.7257937476685</v>
       </c>
       <c r="M14" t="n">
-        <v>240.0365114547489</v>
+        <v>240.036511454749</v>
       </c>
       <c r="N14" t="n">
-        <v>243.9205531605333</v>
+        <v>243.9205531605334</v>
       </c>
       <c r="O14" t="n">
-        <v>230.3272615769369</v>
+        <v>230.327261576937</v>
       </c>
       <c r="P14" t="n">
-        <v>196.5789889463866</v>
+        <v>196.5789889463867</v>
       </c>
       <c r="Q14" t="n">
-        <v>147.6226339658668</v>
+        <v>147.6226339658669</v>
       </c>
       <c r="R14" t="n">
-        <v>85.87098453179969</v>
+        <v>85.87098453179972</v>
       </c>
       <c r="S14" t="n">
-        <v>31.15093721797124</v>
+        <v>31.15093721797125</v>
       </c>
       <c r="T14" t="n">
-        <v>5.984124088718334</v>
+        <v>5.984124088718336</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1093614910559603</v>
+        <v>0.1093614910559604</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7314194534479713</v>
+        <v>0.7314194534479715</v>
       </c>
       <c r="H15" t="n">
-        <v>7.063972089879092</v>
+        <v>7.063972089879095</v>
       </c>
       <c r="I15" t="n">
         <v>25.1826434630113</v>
       </c>
       <c r="J15" t="n">
-        <v>69.10309845053838</v>
+        <v>69.10309845053841</v>
       </c>
       <c r="K15" t="n">
         <v>118.1082018315525</v>
@@ -32086,31 +32086,31 @@
         <v>158.8110528199203</v>
       </c>
       <c r="M15" t="n">
-        <v>185.3250080074092</v>
+        <v>185.3250080074093</v>
       </c>
       <c r="N15" t="n">
-        <v>190.2300095175932</v>
+        <v>190.2300095175933</v>
       </c>
       <c r="O15" t="n">
         <v>174.0232942596145</v>
       </c>
       <c r="P15" t="n">
-        <v>139.6690358079727</v>
+        <v>139.6690358079728</v>
       </c>
       <c r="Q15" t="n">
-        <v>93.36505163662174</v>
+        <v>93.36505163662177</v>
       </c>
       <c r="R15" t="n">
-        <v>45.41216571495389</v>
+        <v>45.4121657149539</v>
       </c>
       <c r="S15" t="n">
         <v>13.58579554979016</v>
       </c>
       <c r="T15" t="n">
-        <v>2.94813367420476</v>
+        <v>2.948133674204761</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04811970088473497</v>
+        <v>0.04811970088473499</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6131974997989175</v>
+        <v>0.6131974997989177</v>
       </c>
       <c r="H16" t="n">
-        <v>5.451883225484925</v>
+        <v>5.451883225484926</v>
       </c>
       <c r="I16" t="n">
         <v>18.44052117577109</v>
       </c>
       <c r="J16" t="n">
-        <v>43.35306323578346</v>
+        <v>43.35306323578347</v>
       </c>
       <c r="K16" t="n">
-        <v>71.2424004311833</v>
+        <v>71.24240043118333</v>
       </c>
       <c r="L16" t="n">
-        <v>91.16574465192271</v>
+        <v>91.16574465192274</v>
       </c>
       <c r="M16" t="n">
-        <v>96.12149535484302</v>
+        <v>96.12149535484305</v>
       </c>
       <c r="N16" t="n">
-        <v>93.83594103741078</v>
+        <v>93.83594103741081</v>
       </c>
       <c r="O16" t="n">
-        <v>86.6726793352143</v>
+        <v>86.67267933521433</v>
       </c>
       <c r="P16" t="n">
-        <v>74.16345033931631</v>
+        <v>74.16345033931634</v>
       </c>
       <c r="Q16" t="n">
-        <v>51.34692882407117</v>
+        <v>51.34692882407119</v>
       </c>
       <c r="R16" t="n">
-        <v>27.5715894000495</v>
+        <v>27.57158940004951</v>
       </c>
       <c r="S16" t="n">
-        <v>10.68636006467749</v>
+        <v>10.6863600646775</v>
       </c>
       <c r="T16" t="n">
-        <v>2.62002568095901</v>
+        <v>2.620025680959011</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03344713635266826</v>
+        <v>0.03344713635266827</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.367018638199504</v>
+        <v>1.367018638199505</v>
       </c>
       <c r="H17" t="n">
         <v>13.99997962846068</v>
       </c>
       <c r="I17" t="n">
-        <v>52.70198604918644</v>
+        <v>52.70198604918647</v>
       </c>
       <c r="J17" t="n">
         <v>116.0239981438853</v>
@@ -32244,31 +32244,31 @@
         <v>215.7257937476685</v>
       </c>
       <c r="M17" t="n">
-        <v>240.0365114547489</v>
+        <v>240.036511454749</v>
       </c>
       <c r="N17" t="n">
-        <v>243.9205531605333</v>
+        <v>243.9205531605334</v>
       </c>
       <c r="O17" t="n">
-        <v>230.3272615769369</v>
+        <v>230.327261576937</v>
       </c>
       <c r="P17" t="n">
-        <v>196.5789889463866</v>
+        <v>196.5789889463867</v>
       </c>
       <c r="Q17" t="n">
-        <v>147.6226339658668</v>
+        <v>147.6226339658669</v>
       </c>
       <c r="R17" t="n">
-        <v>85.87098453179969</v>
+        <v>85.87098453179972</v>
       </c>
       <c r="S17" t="n">
-        <v>31.15093721797124</v>
+        <v>31.15093721797125</v>
       </c>
       <c r="T17" t="n">
-        <v>5.984124088718334</v>
+        <v>5.984124088718336</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1093614910559603</v>
+        <v>0.1093614910559604</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7314194534479713</v>
+        <v>0.7314194534479715</v>
       </c>
       <c r="H18" t="n">
-        <v>7.063972089879092</v>
+        <v>7.063972089879095</v>
       </c>
       <c r="I18" t="n">
         <v>25.1826434630113</v>
       </c>
       <c r="J18" t="n">
-        <v>69.10309845053838</v>
+        <v>69.10309845053841</v>
       </c>
       <c r="K18" t="n">
         <v>118.1082018315525</v>
@@ -32323,31 +32323,31 @@
         <v>158.8110528199203</v>
       </c>
       <c r="M18" t="n">
-        <v>185.3250080074092</v>
+        <v>185.3250080074093</v>
       </c>
       <c r="N18" t="n">
-        <v>190.2300095175932</v>
+        <v>190.2300095175933</v>
       </c>
       <c r="O18" t="n">
         <v>174.0232942596145</v>
       </c>
       <c r="P18" t="n">
-        <v>139.6690358079727</v>
+        <v>139.6690358079728</v>
       </c>
       <c r="Q18" t="n">
-        <v>93.36505163662174</v>
+        <v>93.36505163662177</v>
       </c>
       <c r="R18" t="n">
-        <v>45.41216571495389</v>
+        <v>45.4121657149539</v>
       </c>
       <c r="S18" t="n">
         <v>13.58579554979016</v>
       </c>
       <c r="T18" t="n">
-        <v>2.94813367420476</v>
+        <v>2.948133674204761</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04811970088473497</v>
+        <v>0.04811970088473499</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6131974997989175</v>
+        <v>0.6131974997989177</v>
       </c>
       <c r="H19" t="n">
-        <v>5.451883225484925</v>
+        <v>5.451883225484926</v>
       </c>
       <c r="I19" t="n">
         <v>18.44052117577109</v>
       </c>
       <c r="J19" t="n">
-        <v>43.35306323578346</v>
+        <v>43.35306323578347</v>
       </c>
       <c r="K19" t="n">
-        <v>71.2424004311833</v>
+        <v>71.24240043118333</v>
       </c>
       <c r="L19" t="n">
-        <v>91.16574465192271</v>
+        <v>91.16574465192274</v>
       </c>
       <c r="M19" t="n">
-        <v>96.12149535484302</v>
+        <v>96.12149535484305</v>
       </c>
       <c r="N19" t="n">
-        <v>93.83594103741078</v>
+        <v>93.83594103741081</v>
       </c>
       <c r="O19" t="n">
-        <v>86.6726793352143</v>
+        <v>86.67267933521433</v>
       </c>
       <c r="P19" t="n">
-        <v>74.16345033931631</v>
+        <v>74.16345033931634</v>
       </c>
       <c r="Q19" t="n">
-        <v>51.34692882407117</v>
+        <v>51.34692882407119</v>
       </c>
       <c r="R19" t="n">
-        <v>27.5715894000495</v>
+        <v>27.57158940004951</v>
       </c>
       <c r="S19" t="n">
-        <v>10.68636006467749</v>
+        <v>10.6863600646775</v>
       </c>
       <c r="T19" t="n">
-        <v>2.62002568095901</v>
+        <v>2.620025680959011</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03344713635266826</v>
+        <v>0.03344713635266827</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34707,16 +34707,16 @@
         <v>54.19701966463789</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>47.94769843361666</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>54.19701966463789</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>4.059542658712616</v>
@@ -34780,22 +34780,22 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K3" t="n">
+        <v>54.19701966463789</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>44.53925033830414</v>
       </c>
-      <c r="L3" t="n">
+      <c r="O3" t="n">
         <v>54.19701966463789</v>
       </c>
-      <c r="M3" t="n">
+      <c r="P3" t="n">
         <v>54.19701966463789</v>
-      </c>
-      <c r="N3" t="n">
-        <v>54.19701966463789</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34941,19 +34941,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>54.19701966463789</v>
+        <v>47.94769843361666</v>
       </c>
       <c r="N5" t="n">
         <v>54.19701966463789</v>
       </c>
       <c r="O5" t="n">
-        <v>47.94769843361666</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="Q5" t="n">
         <v>4.059542658712616</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>54.19701966463789</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>54.19701966463789</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>54.19701966463789</v>
       </c>
       <c r="Q6" t="n">
-        <v>52.00724109232928</v>
+        <v>44.53925033830414</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.09876639905511854</v>
+        <v>118.1505544713402</v>
       </c>
       <c r="L8" t="n">
-        <v>118.1505544713417</v>
+        <v>118.1505544713402</v>
       </c>
       <c r="M8" t="n">
-        <v>118.1505544713417</v>
+        <v>118.1505544713402</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>113.3767946947204</v>
       </c>
       <c r="O8" t="n">
-        <v>118.1505544713417</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>109.2184856369541</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.059542658712616</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>118.1505544713402</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>118.1505544713402</v>
       </c>
       <c r="M9" t="n">
-        <v>118.1505544713417</v>
+        <v>23.91065442928316</v>
       </c>
       <c r="N9" t="n">
-        <v>118.1505544713417</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>118.1505544713417</v>
+        <v>118.1505544713402</v>
       </c>
       <c r="P9" t="n">
-        <v>113.3767946947218</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35424,10 +35424,10 @@
         <v>475.0836175423207</v>
       </c>
       <c r="O11" t="n">
-        <v>402.0136939540475</v>
+        <v>402.0136939540477</v>
       </c>
       <c r="P11" t="n">
-        <v>305.7974745833408</v>
+        <v>305.7974745833409</v>
       </c>
       <c r="Q11" t="n">
         <v>151.6821766245795</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.57108920456355</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>258.7566453246342</v>
+        <v>258.7566453246343</v>
       </c>
       <c r="L12" t="n">
         <v>409.3944916501405</v>
@@ -35500,7 +35500,7 @@
         <v>531.0775912334414</v>
       </c>
       <c r="N12" t="n">
-        <v>413.5023617933115</v>
+        <v>560.687909553639</v>
       </c>
       <c r="O12" t="n">
         <v>444.6087679740799</v>
@@ -35509,7 +35509,7 @@
         <v>340.2452679645354</v>
       </c>
       <c r="Q12" t="n">
-        <v>175.3632011480339</v>
+        <v>104.7487425922701</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.46799071334996</v>
+        <v>56.46799071334998</v>
       </c>
       <c r="L13" t="n">
         <v>128.626874880932</v>
@@ -35585,7 +35585,7 @@
         <v>121.2408873651854</v>
       </c>
       <c r="P13" t="n">
-        <v>80.28547223800017</v>
+        <v>80.28547223800018</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35652,19 +35652,19 @@
         <v>296.4135214040257</v>
       </c>
       <c r="L14" t="n">
-        <v>420.2212022843993</v>
+        <v>420.2212022843994</v>
       </c>
       <c r="M14" t="n">
-        <v>482.9430088907038</v>
+        <v>482.9430088907039</v>
       </c>
       <c r="N14" t="n">
-        <v>475.0836175423206</v>
+        <v>475.0836175423207</v>
       </c>
       <c r="O14" t="n">
-        <v>402.0136939540475</v>
+        <v>402.0136939540477</v>
       </c>
       <c r="P14" t="n">
-        <v>305.7974745833408</v>
+        <v>305.7974745833409</v>
       </c>
       <c r="Q14" t="n">
         <v>151.6821766245795</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.57108920456353</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>258.7566453246342</v>
+        <v>258.7566453246343</v>
       </c>
       <c r="L15" t="n">
         <v>409.3944916501405</v>
       </c>
       <c r="M15" t="n">
-        <v>531.0775912334412</v>
+        <v>531.0775912334414</v>
       </c>
       <c r="N15" t="n">
-        <v>560.6879095536389</v>
+        <v>560.687909553639</v>
       </c>
       <c r="O15" t="n">
-        <v>444.6087679740798</v>
+        <v>444.6087679740799</v>
       </c>
       <c r="P15" t="n">
-        <v>340.2452679645353</v>
+        <v>340.2452679645354</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.1776533877071</v>
+        <v>104.7487425922701</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.46799071334995</v>
+        <v>56.46799071334998</v>
       </c>
       <c r="L16" t="n">
         <v>128.626874880932</v>
@@ -35822,7 +35822,7 @@
         <v>121.2408873651854</v>
       </c>
       <c r="P16" t="n">
-        <v>80.28547223800015</v>
+        <v>80.28547223800018</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35889,19 +35889,19 @@
         <v>296.4135214040257</v>
       </c>
       <c r="L17" t="n">
-        <v>420.2212022843993</v>
+        <v>420.2212022843994</v>
       </c>
       <c r="M17" t="n">
-        <v>482.9430088907038</v>
+        <v>482.9430088907039</v>
       </c>
       <c r="N17" t="n">
-        <v>475.0836175423206</v>
+        <v>475.0836175423207</v>
       </c>
       <c r="O17" t="n">
-        <v>402.0136939540475</v>
+        <v>402.0136939540477</v>
       </c>
       <c r="P17" t="n">
-        <v>305.7974745833408</v>
+        <v>305.7974745833409</v>
       </c>
       <c r="Q17" t="n">
         <v>151.6821766245795</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.57108920456353</v>
+        <v>76.57108920456356</v>
       </c>
       <c r="K18" t="n">
-        <v>258.7566453246342</v>
+        <v>258.7566453246343</v>
       </c>
       <c r="L18" t="n">
         <v>409.3944916501405</v>
       </c>
       <c r="M18" t="n">
-        <v>531.0775912334412</v>
+        <v>531.0775912334414</v>
       </c>
       <c r="N18" t="n">
-        <v>413.5023617933117</v>
+        <v>413.5023617933115</v>
       </c>
       <c r="O18" t="n">
-        <v>444.6087679740798</v>
+        <v>444.6087679740799</v>
       </c>
       <c r="P18" t="n">
-        <v>340.2452679645353</v>
+        <v>340.2452679645354</v>
       </c>
       <c r="Q18" t="n">
         <v>175.3632011480339</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.46799071334995</v>
+        <v>56.46799071334998</v>
       </c>
       <c r="L19" t="n">
         <v>128.626874880932</v>
@@ -36059,7 +36059,7 @@
         <v>121.2408873651854</v>
       </c>
       <c r="P19" t="n">
-        <v>80.28547223800015</v>
+        <v>80.28547223800018</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36214,13 +36214,13 @@
         <v>560.6879095536389</v>
       </c>
       <c r="O21" t="n">
-        <v>297.4232202137528</v>
+        <v>444.6087679740798</v>
       </c>
       <c r="P21" t="n">
         <v>340.2452679645353</v>
       </c>
       <c r="Q21" t="n">
-        <v>175.3632011480339</v>
+        <v>28.17765338770756</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.57108920456353</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>258.7566453246342</v>
@@ -36457,7 +36457,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.1776533877071</v>
+        <v>104.7487425922706</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36685,13 +36685,13 @@
         <v>531.0775912334412</v>
       </c>
       <c r="N27" t="n">
-        <v>560.6879095536389</v>
+        <v>413.5023617933117</v>
       </c>
       <c r="O27" t="n">
         <v>444.6087679740798</v>
       </c>
       <c r="P27" t="n">
-        <v>193.0597202042087</v>
+        <v>340.2452679645353</v>
       </c>
       <c r="Q27" t="n">
         <v>175.3632011480339</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.57108920456353</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>258.7566453246342</v>
@@ -36931,7 +36931,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.1776533877071</v>
+        <v>104.7487425922706</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.57108920456353</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>258.7566453246342</v>
+        <v>188.1421867688705</v>
       </c>
       <c r="L33" t="n">
         <v>409.3944916501405</v>
@@ -37168,7 +37168,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q33" t="n">
-        <v>28.1776533877071</v>
+        <v>175.3632011480339</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.57108920456353</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>258.7566453246342</v>
@@ -37402,10 +37402,10 @@
         <v>444.6087679740798</v>
       </c>
       <c r="P36" t="n">
-        <v>193.0597202042091</v>
+        <v>340.2452679645353</v>
       </c>
       <c r="Q36" t="n">
-        <v>175.3632011480339</v>
+        <v>104.7487425922706</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37560,7 +37560,7 @@
         <v>402.0136939540475</v>
       </c>
       <c r="P38" t="n">
-        <v>305.7974745833414</v>
+        <v>305.7974745833408</v>
       </c>
       <c r="Q38" t="n">
         <v>151.6821766245795</v>
@@ -37639,10 +37639,10 @@
         <v>444.6087679740798</v>
       </c>
       <c r="P39" t="n">
-        <v>193.0597202042091</v>
+        <v>340.2452679645353</v>
       </c>
       <c r="Q39" t="n">
-        <v>175.3632011480339</v>
+        <v>28.1776533877071</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37867,10 +37867,10 @@
         <v>409.3944916501405</v>
       </c>
       <c r="M42" t="n">
-        <v>383.8920434731139</v>
+        <v>531.0775912334412</v>
       </c>
       <c r="N42" t="n">
-        <v>560.6879095536389</v>
+        <v>413.5023617933117</v>
       </c>
       <c r="O42" t="n">
         <v>444.6087679740798</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>115.3647210093229</v>
+        <v>115.3647210093227</v>
       </c>
       <c r="K44" t="n">
         <v>296.4135214040257</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.57108920456353</v>
       </c>
       <c r="K45" t="n">
         <v>258.7566453246342</v>
@@ -38110,13 +38110,13 @@
         <v>560.6879095536389</v>
       </c>
       <c r="O45" t="n">
-        <v>444.6087679740798</v>
+        <v>297.4232202137528</v>
       </c>
       <c r="P45" t="n">
         <v>340.2452679645353</v>
       </c>
       <c r="Q45" t="n">
-        <v>104.7487425922706</v>
+        <v>175.3632011480339</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
